--- a/CashFlow/LYB_cashflow.xlsx
+++ b/CashFlow/LYB_cashflow.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AN33"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -77,7 +77,7 @@
     <col min="2" max="2" bestFit="1" customWidth="1" width="16.5"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="16.5"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="8" max="8" bestFit="1" customWidth="1" width="15.400000000000002"/>
@@ -113,6 +113,7 @@
     <col min="38" max="38" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="39" max="39" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="40" max="40" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="41" max="41" bestFit="1" customWidth="1" width="15.400000000000002"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -122,120 +123,123 @@
         </is>
       </c>
       <c r="B1" s="2">
+        <v>44286.0</v>
+      </c>
+      <c r="C1" s="2">
         <v>44196.0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>44104.0</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>44012.0</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43921.0</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43830.0</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>43738.0</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>43646.0</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>43555.0</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>43465.0</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>43373.0</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>43281.0</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>43190.0</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>43100.0</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>43008.0</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>42916.0</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>42825.0</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>42735.0</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>42643.0</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>42551.0</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V1" s="2">
         <v>42460.0</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W1" s="2">
         <v>42369.0</v>
       </c>
-      <c r="W1" s="2">
+      <c r="X1" s="2">
         <v>42277.0</v>
       </c>
-      <c r="X1" s="2">
+      <c r="Y1" s="2">
         <v>42185.0</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Z1" s="2">
         <v>42094.0</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="AA1" s="2">
         <v>42004.0</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AB1" s="2">
         <v>41912.0</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AC1" s="2">
         <v>41820.0</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AD1" s="2">
         <v>41729.0</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AE1" s="2">
         <v>41639.0</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AF1" s="2">
         <v>41547.0</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AG1" s="2">
         <v>41455.0</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AH1" s="2">
         <v>41364.0</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AI1" s="2">
         <v>41274.0</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AJ1" s="2">
         <v>41182.0</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AK1" s="2">
         <v>41090.0</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AL1" s="2">
         <v>40999.0</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AM1" s="2">
         <v>40908.0</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AN1" s="2">
         <v>40816.0</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AO1" s="2">
         <v>40724.0</v>
       </c>
     </row>
@@ -246,120 +250,123 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
+        <v>2353000000.0</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>1426000000.0</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="D2" s="0" t="n">
         <v>1181000000.0</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="E2" s="0" t="n">
         <v>2033000000.0</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="F2" s="0" t="n">
         <v>2722000000.0</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="G2" s="0" t="n">
         <v>3396000000.0</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="H2" s="0" t="n">
         <v>3477000000.0</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="I2" s="0" t="n">
         <v>3625000000.0</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="J2" s="0" t="n">
         <v>4276000000.0</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="K2" s="0" t="n">
         <v>4690000000.0</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="L2" s="0" t="n">
         <v>5892000000.0</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="M2" s="0" t="n">
         <v>5835000000.0</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="N2" s="0" t="n">
         <v>5311000000.0</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="O2" s="0" t="n">
         <v>4877000000.0</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="P2" s="0" t="n">
         <v>3746000000.0</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="Q2" s="0" t="n">
         <v>3643000000.0</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="R2" s="0" t="n">
         <v>3604000000.0</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="S2" s="0" t="n">
         <v>3837000000.0</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="T2" s="0" t="n">
         <v>3869000000.0</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="U2" s="0" t="n">
         <v>4102000000.0</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="V2" s="0" t="n">
         <v>4340000000.0</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="W2" s="0" t="n">
         <v>4474000000.0</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="X2" s="0" t="n">
         <v>4470000000.0</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="Y2" s="0" t="n">
         <v>4541000000.0</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Z2" s="0" t="n">
         <v>4388000000.0</v>
       </c>
-      <c r="Z2" s="0" t="n">
+      <c r="AA2" s="0" t="n">
         <v>4168000000.0</v>
       </c>
-      <c r="AA2" s="0" t="n">
+      <c r="AB2" s="0" t="n">
         <v>4552000000.0</v>
       </c>
-      <c r="AB2" s="0" t="n">
+      <c r="AC2" s="0" t="n">
         <v>4146000000.0</v>
       </c>
-      <c r="AC2" s="0" t="n">
+      <c r="AD2" s="0" t="n">
         <v>3897000000.0</v>
       </c>
-      <c r="AD2" s="0" t="n">
+      <c r="AE2" s="0" t="n">
         <v>3853000000.0</v>
       </c>
-      <c r="AE2" s="0" t="n">
+      <c r="AF2" s="0" t="n">
         <v>3301000000.0</v>
       </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AG2" s="0" t="n">
         <v>3294000000.0</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AH2" s="0" t="n">
         <v>3135000000.0</v>
       </c>
-      <c r="AH2" s="0" t="n">
+      <c r="AI2" s="0" t="n">
         <v>2834000000.0</v>
       </c>
-      <c r="AI2" s="0" t="n">
+      <c r="AJ2" s="0" t="n">
         <v>1993000000.0</v>
       </c>
-      <c r="AJ2" s="0" t="n">
+      <c r="AK2" s="0" t="n">
         <v>2044000000.0</v>
       </c>
-      <c r="AK2" s="0" t="n">
+      <c r="AL2" s="0" t="n">
         <v>2079000000.0</v>
       </c>
-      <c r="AL2" s="0" t="n">
+      <c r="AM2" s="0" t="n">
         <v>2140000000.0</v>
       </c>
-      <c r="AM2" s="0" t="n">
+      <c r="AN2" s="0" t="n">
         <v>3124000000.0</v>
       </c>
-      <c r="AN2" s="0" t="n">
+      <c r="AO2" s="0" t="n">
         <v>2696000000.0</v>
       </c>
     </row>
@@ -370,120 +377,123 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
+        <v>1383000000.0</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>1385000000.0</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="D3" s="0" t="n">
         <v>1391000000.0</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="E3" s="0" t="n">
         <v>1363000000.0</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="F3" s="0" t="n">
         <v>1338000000.0</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="G3" s="0" t="n">
         <v>1319000000.0</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="H3" s="0" t="n">
         <v>1320000000.0</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="I3" s="0" t="n">
         <v>1303000000.0</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="J3" s="0" t="n">
         <v>1275000000.0</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="K3" s="0" t="n">
         <v>1255000000.0</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="L3" s="0" t="n">
         <v>1220000000.0</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="M3" s="0" t="n">
         <v>1205000000.0</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="N3" s="0" t="n">
         <v>1192000000.0</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="O3" s="0" t="n">
         <v>1189000000.0</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="P3" s="0" t="n">
         <v>1165000000.0</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="Q3" s="0" t="n">
         <v>1127000000.0</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="R3" s="0" t="n">
         <v>1108000000.0</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="S3" s="0" t="n">
         <v>1080000000.0</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="T3" s="0" t="n">
         <v>1072000000.0</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="U3" s="0" t="n">
         <v>1064000000.0</v>
       </c>
-      <c r="U3" s="0" t="n">
+      <c r="V3" s="0" t="n">
         <v>1044000000.0</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="W3" s="0" t="n">
         <v>1063000000.0</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="X3" s="0" t="n">
         <v>1045000000.0</v>
       </c>
-      <c r="X3" s="0" t="n">
+      <c r="Y3" s="0" t="n">
         <v>1059000000.0</v>
       </c>
-      <c r="Y3" s="0" t="n">
+      <c r="Z3" s="0" t="n">
         <v>1065000000.0</v>
       </c>
-      <c r="Z3" s="0" t="n">
+      <c r="AA3" s="0" t="n">
         <v>1039000000.0</v>
       </c>
-      <c r="AA3" s="0" t="n">
+      <c r="AB3" s="0" t="n">
         <v>1045000000.0</v>
       </c>
-      <c r="AB3" s="0" t="n">
+      <c r="AC3" s="0" t="n">
         <v>1046000000.0</v>
       </c>
-      <c r="AC3" s="0" t="n">
+      <c r="AD3" s="0" t="n">
         <v>1048000000.0</v>
       </c>
-      <c r="AD3" s="0" t="n">
+      <c r="AE3" s="0" t="n">
         <v>1042000000.0</v>
       </c>
-      <c r="AE3" s="0" t="n">
+      <c r="AF3" s="0" t="n">
         <v>1057000000.0</v>
       </c>
-      <c r="AF3" s="0" t="n">
+      <c r="AG3" s="0" t="n">
         <v>1032000000.0</v>
       </c>
-      <c r="AG3" s="0" t="n">
+      <c r="AH3" s="0" t="n">
         <v>1063000000.0</v>
       </c>
-      <c r="AH3" s="0" t="n">
+      <c r="AI3" s="0" t="n">
         <v>1041000000.0</v>
       </c>
-      <c r="AI3" s="0" t="n">
+      <c r="AJ3" s="0" t="n">
         <v>1057000000.0</v>
       </c>
-      <c r="AJ3" s="0" t="n">
+      <c r="AK3" s="0" t="n">
         <v>1060000000.0</v>
       </c>
-      <c r="AK3" s="0" t="n">
+      <c r="AL3" s="0" t="n">
         <v>1006000000.0</v>
       </c>
-      <c r="AL3" s="0" t="n">
+      <c r="AM3" s="0" t="n">
         <v>992000000.0</v>
       </c>
-      <c r="AM3" s="0" t="n">
+      <c r="AN3" s="0" t="n">
         <v>919000000.0</v>
       </c>
-      <c r="AN3" s="0" t="n">
+      <c r="AO3" s="0" t="n">
         <v>906000000.0</v>
       </c>
     </row>
@@ -494,120 +504,123 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
+        <v>594000000.0</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>874000000.0</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="D4" s="0" t="n">
         <v>540000000.0</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="E4" s="0" t="n">
         <v>78000000.0</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="F4" s="0" t="n">
         <v>354000000.0</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="G4" s="0" t="n">
         <v>274000000.0</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="H4" s="0" t="n">
         <v>395000000.0</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="I4" s="0" t="n">
         <v>302000000.0</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="J4" s="0" t="n">
         <v>326000000.0</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="K4" s="0" t="n">
         <v>281000000.0</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="L4" s="0" t="n">
         <v>-659000000.0</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="M4" s="0" t="n">
         <v>-702000000.0</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="N4" s="0" t="n">
         <v>-676000000.0</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="O4" s="0" t="n">
         <v>-652000000.0</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="P4" s="0" t="n">
         <v>249000000.0</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="Q4" s="0" t="n">
         <v>446000000.0</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="R4" s="0" t="n">
         <v>398000000.0</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="S4" s="0" t="n">
         <v>329000000.0</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="T4" s="0" t="n">
         <v>405000000.0</v>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="U4" s="0" t="n">
         <v>251000000.0</v>
       </c>
-      <c r="U4" s="0" t="n">
+      <c r="V4" s="0" t="n">
         <v>129000000.0</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="W4" s="0" t="n">
         <v>180000000.0</v>
       </c>
-      <c r="W4" s="0" t="n">
+      <c r="X4" s="0" t="n">
         <v>4000000.0</v>
       </c>
-      <c r="X4" s="0" t="n">
+      <c r="Y4" s="0" t="n">
         <v>98000000.0</v>
       </c>
-      <c r="Y4" s="0" t="n">
+      <c r="Z4" s="0" t="n">
         <v>117000000.0</v>
       </c>
-      <c r="Z4" s="0" t="n">
+      <c r="AA4" s="0" t="n">
         <v>76000000.0</v>
       </c>
-      <c r="AA4" s="0" t="n">
+      <c r="AB4" s="0" t="n">
         <v>-182000000.0</v>
       </c>
-      <c r="AB4" s="0" t="n">
+      <c r="AC4" s="0" t="n">
         <v>-93000000.0</v>
       </c>
-      <c r="AC4" s="0" t="n">
+      <c r="AD4" s="0" t="n">
         <v>-74000000.0</v>
       </c>
-      <c r="AD4" s="0" t="n">
+      <c r="AE4" s="0" t="n">
         <v>-63000000.0</v>
       </c>
-      <c r="AE4" s="0" t="n">
+      <c r="AF4" s="0" t="n">
         <v>430000000.0</v>
       </c>
-      <c r="AF4" s="0" t="n">
+      <c r="AG4" s="0" t="n">
         <v>395000000.0</v>
       </c>
-      <c r="AG4" s="0" t="n">
+      <c r="AH4" s="0" t="n">
         <v>558000000.0</v>
       </c>
-      <c r="AH4" s="0" t="n">
+      <c r="AI4" s="0" t="n">
         <v>741000000.0</v>
       </c>
-      <c r="AI4" s="0" t="n">
+      <c r="AJ4" s="0" t="n">
         <v>-109000000.0</v>
       </c>
-      <c r="AJ4" s="0" t="n">
+      <c r="AK4" s="0" t="n">
         <v>125000000.0</v>
       </c>
-      <c r="AK4" s="0" t="n">
+      <c r="AL4" s="0" t="n">
         <v>18000000.0</v>
       </c>
-      <c r="AL4" s="0" t="n">
+      <c r="AM4" s="0" t="n">
         <v>-141000000.0</v>
       </c>
-      <c r="AM4" s="0" t="n">
+      <c r="AN4" s="0" t="n">
         <v>-199000000.0</v>
       </c>
-      <c r="AN4" s="0" t="n">
+      <c r="AO4" s="0" t="n">
         <v>-418000000.0</v>
       </c>
     </row>
@@ -618,120 +631,123 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
+        <v>-843000000.0</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>-246000000.0</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="D5" s="0" t="n">
         <v>565000000.0</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <v>1117000000.0</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="F5" s="0" t="n">
         <v>577000000.0</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="G5" s="0" t="n">
         <v>367000000.0</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="H5" s="0" t="n">
         <v>515000000.0</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="I5" s="0" t="n">
         <v>494000000.0</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="J5" s="0" t="n">
         <v>423000000.0</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="K5" s="0" t="n">
         <v>433000000.0</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="L5" s="0" t="n">
         <v>-371000000.0</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="M5" s="0" t="n">
         <v>-707000000.0</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="N5" s="0" t="n">
         <v>-285000000.0</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="O5" s="0" t="n">
         <v>-521000000.0</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="P5" s="0" t="n">
         <v>-338000000.0</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="Q5" s="0" t="n">
         <v>-240000000.0</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="R5" s="0" t="n">
         <v>-680000000.0</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="S5" s="0" t="n">
         <v>-383000000.0</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="T5" s="0" t="n">
         <v>49000000.0</v>
       </c>
-      <c r="T5" s="0" t="n">
+      <c r="U5" s="0" t="n">
         <v>534000000.0</v>
       </c>
-      <c r="U5" s="0" t="n">
+      <c r="V5" s="0" t="n">
         <v>448000000.0</v>
       </c>
-      <c r="V5" s="0" t="n">
+      <c r="W5" s="0" t="n">
         <v>780000000.0</v>
       </c>
-      <c r="W5" s="0" t="n">
+      <c r="X5" s="0" t="n">
         <v>1006000000.0</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="Y5" s="0" t="n">
         <v>569000000.0</v>
       </c>
-      <c r="Y5" s="0" t="n">
+      <c r="Z5" s="0" t="n">
         <v>660000000.0</v>
       </c>
-      <c r="Z5" s="0" t="n">
+      <c r="AA5" s="0" t="n">
         <v>358000000.0</v>
       </c>
-      <c r="AA5" s="0" t="n">
+      <c r="AB5" s="0" t="n">
         <v>-198000000.0</v>
       </c>
-      <c r="AB5" s="0" t="n">
+      <c r="AC5" s="0" t="n">
         <v>-167000000.0</v>
       </c>
-      <c r="AC5" s="0" t="n">
+      <c r="AD5" s="0" t="n">
         <v>-147000000.0</v>
       </c>
-      <c r="AD5" s="0" t="n">
+      <c r="AE5" s="0" t="n">
         <v>-64000000.0</v>
       </c>
-      <c r="AE5" s="0" t="n">
+      <c r="AF5" s="0" t="n">
         <v>107000000.0</v>
       </c>
-      <c r="AF5" s="0" t="n">
+      <c r="AG5" s="0" t="n">
         <v>-88000000.0</v>
       </c>
-      <c r="AG5" s="0" t="n">
+      <c r="AH5" s="0" t="n">
         <v>251000000.0</v>
       </c>
-      <c r="AH5" s="0" t="n">
+      <c r="AI5" s="0" t="n">
         <v>-101000000.0</v>
       </c>
-      <c r="AI5" s="0" t="n">
+      <c r="AJ5" s="0" t="n">
         <v>-121000000.0</v>
       </c>
-      <c r="AJ5" s="0" t="n">
+      <c r="AK5" s="0" t="n">
         <v>757000000.0</v>
       </c>
-      <c r="AK5" s="0" t="n">
+      <c r="AL5" s="0" t="n">
         <v>434000000.0</v>
       </c>
-      <c r="AL5" s="0" t="n">
+      <c r="AM5" s="0" t="n">
         <v>-89000000.0</v>
       </c>
-      <c r="AM5" s="0" t="n">
+      <c r="AN5" s="0" t="n">
         <v>-368000000.0</v>
       </c>
-      <c r="AN5" s="0" t="n">
+      <c r="AO5" s="0" t="n">
         <v>-1193000000.0</v>
       </c>
     </row>
@@ -742,120 +758,123 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
+        <v>12037000000.0</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>16491000000.0</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="D6" s="0" t="n">
         <v>16723000000.0</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>12890000000.0</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>8610000000.0</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>4513000000.0</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="H6" s="0" t="n">
         <v>49000000.0</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="I6" s="0" t="n">
         <v>-323000000.0</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="J6" s="0" t="n">
         <v>-89000000.0</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="K6" s="0" t="n">
         <v>-141000000.0</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="L6" s="0" t="n">
         <v>-220000000.0</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="M6" s="0" t="n">
         <v>-133000000.0</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="N6" s="0" t="n">
         <v>-248000000.0</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="O6" s="0" t="n">
         <v>-237000000.0</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="P6" s="0" t="n">
         <v>-90000000.0</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="Q6" s="0" t="n">
         <v>31000000.0</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="R6" s="0" t="n">
         <v>25000000.0</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="S6" s="0" t="n">
         <v>152000000.0</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="T6" s="0" t="n">
         <v>79000000.0</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="U6" s="0" t="n">
         <v>110000000.0</v>
       </c>
-      <c r="U6" s="0" t="n">
+      <c r="V6" s="0" t="n">
         <v>303000000.0</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="W6" s="0" t="n">
         <v>308000000.0</v>
       </c>
-      <c r="W6" s="0" t="n">
+      <c r="X6" s="0" t="n">
         <v>1036000000.0</v>
       </c>
-      <c r="X6" s="0" t="n">
+      <c r="Y6" s="0" t="n">
         <v>832000000.0</v>
       </c>
-      <c r="Y6" s="0" t="n">
+      <c r="Z6" s="0" t="n">
         <v>948000000.0</v>
       </c>
-      <c r="Z6" s="0" t="n">
+      <c r="AA6" s="0" t="n">
         <v>555000000.0</v>
       </c>
-      <c r="AA6" s="0" t="n">
+      <c r="AB6" s="0" t="n">
         <v>-98000000.0</v>
       </c>
-      <c r="AB6" s="0" t="n">
+      <c r="AC6" s="0" t="n">
         <v>-53000000.0</v>
       </c>
-      <c r="AC6" s="0" t="n">
+      <c r="AD6" s="0" t="n">
         <v>-214000000.0</v>
       </c>
-      <c r="AD6" s="0" t="n">
+      <c r="AE6" s="0" t="n">
         <v>-151000000.0</v>
       </c>
-      <c r="AE6" s="0" t="n">
+      <c r="AF6" s="0" t="n">
         <v>-95000000.0</v>
       </c>
-      <c r="AF6" s="0" t="n">
+      <c r="AG6" s="0" t="n">
         <v>598000000.0</v>
       </c>
-      <c r="AG6" s="0" t="n">
+      <c r="AH6" s="0" t="n">
         <v>-147000000.0</v>
       </c>
-      <c r="AH6" s="0" t="n">
+      <c r="AI6" s="0" t="n">
         <v>441000000.0</v>
       </c>
-      <c r="AI6" s="0" t="n">
+      <c r="AJ6" s="0" t="n">
         <v>386000000.0</v>
       </c>
-      <c r="AJ6" s="0" t="n">
+      <c r="AK6" s="0" t="n">
         <v>-421000000.0</v>
       </c>
-      <c r="AK6" s="0" t="n">
+      <c r="AL6" s="0" t="n">
         <v>413000000.0</v>
       </c>
-      <c r="AL6" s="0" t="n">
+      <c r="AM6" s="0" t="n">
         <v>-732000000.0</v>
       </c>
-      <c r="AM6" s="0" t="n">
+      <c r="AN6" s="0" t="n">
         <v>-1345000000.0</v>
       </c>
-      <c r="AN6" s="0" t="n">
+      <c r="AO6" s="0" t="n">
         <v>-993000000.0</v>
       </c>
     </row>
@@ -866,120 +885,123 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
+        <v>779000000.0</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>217000000.0</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="D7" s="0" t="n">
         <v>-334000000.0</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="E7" s="0" t="n">
         <v>-634000000.0</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="F7" s="0" t="n">
         <v>-591000000.0</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="G7" s="0" t="n">
         <v>-251000000.0</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="H7" s="0" t="n">
         <v>-463000000.0</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="I7" s="0" t="n">
         <v>-516000000.0</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="J7" s="0" t="n">
         <v>-166000000.0</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="K7" s="0" t="n">
         <v>-199000000.0</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="L7" s="0" t="n">
         <v>301000000.0</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="M7" s="0" t="n">
         <v>609000000.0</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="N7" s="0" t="n">
         <v>184000000.0</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="O7" s="0" t="n">
         <v>165000000.0</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="P7" s="0" t="n">
         <v>430000000.0</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="Q7" s="0" t="n">
         <v>-7000000.0</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="R7" s="0" t="n">
         <v>386000000.0</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="S7" s="0" t="n">
         <v>383000000.0</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="T7" s="0" t="n">
         <v>-211000000.0</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="U7" s="0" t="n">
         <v>-413000000.0</v>
       </c>
-      <c r="U7" s="0" t="n">
+      <c r="V7" s="0" t="n">
         <v>-490000000.0</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="W7" s="0" t="n">
         <v>-786000000.0</v>
       </c>
-      <c r="W7" s="0" t="n">
+      <c r="X7" s="0" t="n">
         <v>-862000000.0</v>
       </c>
-      <c r="X7" s="0" t="n">
+      <c r="Y7" s="0" t="n">
         <v>-732000000.0</v>
       </c>
-      <c r="Y7" s="0" t="n">
+      <c r="Z7" s="0" t="n">
         <v>-715000000.0</v>
       </c>
-      <c r="Z7" s="0" t="n">
+      <c r="AA7" s="0" t="n">
         <v>-378000000.0</v>
       </c>
-      <c r="AA7" s="0" t="n">
+      <c r="AB7" s="0" t="n">
         <v>242000000.0</v>
       </c>
-      <c r="AB7" s="0" t="n">
+      <c r="AC7" s="0" t="n">
         <v>324000000.0</v>
       </c>
-      <c r="AC7" s="0" t="n">
+      <c r="AD7" s="0" t="n">
         <v>383000000.0</v>
       </c>
-      <c r="AD7" s="0" t="n">
+      <c r="AE7" s="0" t="n">
         <v>275000000.0</v>
       </c>
-      <c r="AE7" s="0" t="n">
+      <c r="AF7" s="0" t="n">
         <v>-73000000.0</v>
       </c>
-      <c r="AF7" s="0" t="n">
+      <c r="AG7" s="0" t="n">
         <v>249000000.0</v>
       </c>
-      <c r="AG7" s="0" t="n">
+      <c r="AH7" s="0" t="n">
         <v>-286000000.0</v>
       </c>
-      <c r="AH7" s="0" t="n">
+      <c r="AI7" s="0" t="n">
         <v>-189000000.0</v>
       </c>
-      <c r="AI7" s="0" t="n">
+      <c r="AJ7" s="0" t="n">
         <v>51000000.0</v>
       </c>
-      <c r="AJ7" s="0" t="n">
+      <c r="AK7" s="0" t="n">
         <v>-782000000.0</v>
       </c>
-      <c r="AK7" s="0" t="n">
+      <c r="AL7" s="0" t="n">
         <v>-481000000.0</v>
       </c>
-      <c r="AL7" s="0" t="n">
+      <c r="AM7" s="0" t="n">
         <v>703000000.0</v>
       </c>
-      <c r="AM7" s="0" t="n">
+      <c r="AN7" s="0" t="n">
         <v>777000000.0</v>
       </c>
-      <c r="AN7" s="0" t="n">
+      <c r="AO7" s="0" t="n">
         <v>1306000000.0</v>
       </c>
     </row>
@@ -989,17 +1011,17 @@
           <t>Change in payables and accrued liability</t>
         </is>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C8" s="0" t="n">
         <v>10476000000.0</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="D8" s="0" t="n">
         <v>9905000000.0</v>
       </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
           <t/>
@@ -1176,6 +1198,11 @@
         </is>
       </c>
       <c r="AN8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1352,26 +1379,31 @@
           <t/>
         </is>
       </c>
-      <c r="AI9" s="0" t="n">
+      <c r="AI9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ9" s="0" t="n">
         <v>298000000.0</v>
       </c>
-      <c r="AJ9" s="0" t="n">
+      <c r="AK9" s="0" t="n">
         <v>297000000.0</v>
       </c>
-      <c r="AK9" s="0" t="n">
+      <c r="AL9" s="0" t="n">
         <v>257000000.0</v>
       </c>
-      <c r="AL9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AM9" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AN9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO9" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1383,26 +1415,26 @@
           <t>Change in other assets and liabilities</t>
         </is>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C10" s="0" t="n">
         <v>-630000000.0</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="D10" s="0" t="n">
         <v>10000000.0</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="E10" s="0" t="n">
         <v>15000000.0</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="F10" s="0" t="n">
         <v>-229000000.0</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="G10" s="0" t="n">
         <v>39000000.0</v>
       </c>
-      <c r="G10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
           <t/>
@@ -1478,58 +1510,63 @@
           <t/>
         </is>
       </c>
-      <c r="W10" s="0" t="n">
+      <c r="W10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X10" s="0" t="n">
         <v>-113000000.0</v>
       </c>
-      <c r="X10" s="0" t="n">
+      <c r="Y10" s="0" t="n">
         <v>-63000000.0</v>
       </c>
-      <c r="Y10" s="0" t="n">
+      <c r="Z10" s="0" t="n">
         <v>176000000.0</v>
       </c>
-      <c r="Z10" s="0" t="n">
+      <c r="AA10" s="0" t="n">
         <v>156000000.0</v>
       </c>
-      <c r="AA10" s="0" t="n">
+      <c r="AB10" s="0" t="n">
         <v>185000000.0</v>
       </c>
-      <c r="AB10" s="0" t="n">
+      <c r="AC10" s="0" t="n">
         <v>80000000.0</v>
       </c>
-      <c r="AC10" s="0" t="n">
+      <c r="AD10" s="0" t="n">
         <v>-158000000.0</v>
       </c>
-      <c r="AD10" s="0" t="n">
+      <c r="AE10" s="0" t="n">
         <v>-165000000.0</v>
       </c>
-      <c r="AE10" s="0" t="n">
+      <c r="AF10" s="0" t="n">
         <v>-141000000.0</v>
       </c>
-      <c r="AF10" s="0" t="n">
+      <c r="AG10" s="0" t="n">
         <v>-99000000.0</v>
       </c>
-      <c r="AG10" s="0" t="n">
+      <c r="AH10" s="0" t="n">
         <v>61000000.0</v>
       </c>
-      <c r="AH10" s="0" t="n">
+      <c r="AI10" s="0" t="n">
         <v>-98000000.0</v>
       </c>
-      <c r="AI10" s="0" t="n">
+      <c r="AJ10" s="0" t="n">
         <v>-20000000.0</v>
       </c>
-      <c r="AJ10" s="0" t="n">
+      <c r="AK10" s="0" t="n">
         <v>-4000000.0</v>
       </c>
-      <c r="AK10" s="0" t="n">
+      <c r="AL10" s="0" t="n">
         <v>-211000000.0</v>
       </c>
-      <c r="AL10" s="0" t="n">
+      <c r="AM10" s="0" t="n">
         <v>-23000000.0</v>
       </c>
-      <c r="AM10" s="0" t="n">
+      <c r="AN10" s="0" t="n">
         <v>-256000000.0</v>
       </c>
-      <c r="AN10" s="0" t="n">
+      <c r="AO10" s="0" t="n">
         <v>-56000000.0</v>
       </c>
     </row>
@@ -1540,120 +1577,123 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
+        <v>-306000000.0</v>
+      </c>
+      <c r="C11" s="0" t="n">
         <v>-630000000.0</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="D11" s="0" t="n">
         <v>10000000.0</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="E11" s="0" t="n">
         <v>119000000.0</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="F11" s="0" t="n">
         <v>-11000000.0</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="G11" s="0" t="n">
         <v>-53000000.0</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="H11" s="0" t="n">
         <v>-277000000.0</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="I11" s="0" t="n">
         <v>-304000000.0</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="J11" s="0" t="n">
         <v>-923000000.0</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="K11" s="0" t="n">
         <v>-848000000.0</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="L11" s="0" t="n">
         <v>-507000000.0</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="M11" s="0" t="n">
         <v>-406000000.0</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="N11" s="0" t="n">
         <v>56000000.0</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="O11" s="0" t="n">
         <v>385000000.0</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="P11" s="0" t="n">
         <v>275000000.0</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="Q11" s="0" t="n">
         <v>283000000.0</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="R11" s="0" t="n">
         <v>143000000.0</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="S11" s="0" t="n">
         <v>208000000.0</v>
       </c>
-      <c r="S11" s="0" t="n">
+      <c r="T11" s="0" t="n">
         <v>-308000000.0</v>
       </c>
-      <c r="T11" s="0" t="n">
+      <c r="U11" s="0" t="n">
         <v>-211000000.0</v>
       </c>
-      <c r="U11" s="0" t="n">
+      <c r="V11" s="0" t="n">
         <v>-188000000.0</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="W11" s="0" t="n">
         <v>-177000000.0</v>
       </c>
-      <c r="W11" s="0" t="n">
+      <c r="X11" s="0" t="n">
         <v>112000000.0</v>
       </c>
-      <c r="X11" s="0" t="n">
+      <c r="Y11" s="0" t="n">
         <v>60000000.0</v>
       </c>
-      <c r="Y11" s="0" t="n">
+      <c r="Z11" s="0" t="n">
         <v>76000000.0</v>
       </c>
-      <c r="Z11" s="0" t="n">
+      <c r="AA11" s="0" t="n">
         <v>74000000.0</v>
       </c>
-      <c r="AA11" s="0" t="n">
+      <c r="AB11" s="0" t="n">
         <v>160000000.0</v>
       </c>
-      <c r="AB11" s="0" t="n">
+      <c r="AC11" s="0" t="n">
         <v>105000000.0</v>
       </c>
-      <c r="AC11" s="0" t="n">
+      <c r="AD11" s="0" t="n">
         <v>102000000.0</v>
       </c>
-      <c r="AD11" s="0" t="n">
+      <c r="AE11" s="0" t="n">
         <v>108000000.0</v>
       </c>
-      <c r="AE11" s="0" t="n">
+      <c r="AF11" s="0" t="n">
         <v>194000000.0</v>
       </c>
-      <c r="AF11" s="0" t="n">
+      <c r="AG11" s="0" t="n">
         <v>322000000.0</v>
       </c>
-      <c r="AG11" s="0" t="n">
+      <c r="AH11" s="0" t="n">
         <v>282000000.0</v>
       </c>
-      <c r="AH11" s="0" t="n">
+      <c r="AI11" s="0" t="n">
         <v>118000000.0</v>
       </c>
-      <c r="AI11" s="0" t="n">
+      <c r="AJ11" s="0" t="n">
         <v>6000000.0</v>
       </c>
-      <c r="AJ11" s="0" t="n">
+      <c r="AK11" s="0" t="n">
         <v>-44000000.0</v>
       </c>
-      <c r="AK11" s="0" t="n">
+      <c r="AL11" s="0" t="n">
         <v>45000000.0</v>
       </c>
-      <c r="AL11" s="0" t="n">
+      <c r="AM11" s="0" t="n">
         <v>3000000.0</v>
       </c>
-      <c r="AM11" s="0" t="n">
+      <c r="AN11" s="0" t="n">
         <v>861000000.0</v>
       </c>
-      <c r="AN11" s="0" t="n">
+      <c r="AO11" s="0" t="n">
         <v>858000000.0</v>
       </c>
     </row>
@@ -1664,120 +1704,123 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
+        <v>3433000000.0</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <v>3404000000.0</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="D12" s="0" t="n">
         <v>3903000000.0</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="E12" s="0" t="n">
         <v>4952000000.0</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="F12" s="0" t="n">
         <v>4846000000.0</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="G12" s="0" t="n">
         <v>4961000000.0</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="H12" s="0" t="n">
         <v>5016000000.0</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="I12" s="0" t="n">
         <v>4581000000.0</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="J12" s="0" t="n">
         <v>5122000000.0</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="K12" s="0" t="n">
         <v>5471000000.0</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="L12" s="0" t="n">
         <v>5656000000.0</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="M12" s="0" t="n">
         <v>5701000000.0</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="N12" s="0" t="n">
         <v>5534000000.0</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="O12" s="0" t="n">
         <v>5206000000.0</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="P12" s="0" t="n">
         <v>5437000000.0</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="Q12" s="0" t="n">
         <v>5283000000.0</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="R12" s="0" t="n">
         <v>4984000000.0</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="S12" s="0" t="n">
         <v>5606000000.0</v>
       </c>
-      <c r="S12" s="0" t="n">
+      <c r="T12" s="0" t="n">
         <v>5053000000.0</v>
       </c>
-      <c r="T12" s="0" t="n">
+      <c r="U12" s="0" t="n">
         <v>5489000000.0</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="V12" s="0" t="n">
         <v>5674000000.0</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="W12" s="0" t="n">
         <v>5842000000.0</v>
       </c>
-      <c r="W12" s="0" t="n">
+      <c r="X12" s="0" t="n">
         <v>6698000000.0</v>
       </c>
-      <c r="X12" s="0" t="n">
+      <c r="Y12" s="0" t="n">
         <v>6364000000.0</v>
       </c>
-      <c r="Y12" s="0" t="n">
+      <c r="Z12" s="0" t="n">
         <v>6715000000.0</v>
       </c>
-      <c r="Z12" s="0" t="n">
+      <c r="AA12" s="0" t="n">
         <v>6048000000.0</v>
       </c>
-      <c r="AA12" s="0" t="n">
+      <c r="AB12" s="0" t="n">
         <v>5706000000.0</v>
       </c>
-      <c r="AB12" s="0" t="n">
+      <c r="AC12" s="0" t="n">
         <v>5388000000.0</v>
       </c>
-      <c r="AC12" s="0" t="n">
+      <c r="AD12" s="0" t="n">
         <v>4837000000.0</v>
       </c>
-      <c r="AD12" s="0" t="n">
+      <c r="AE12" s="0" t="n">
         <v>4835000000.0</v>
       </c>
-      <c r="AE12" s="0" t="n">
+      <c r="AF12" s="0" t="n">
         <v>4489000000.0</v>
       </c>
-      <c r="AF12" s="0" t="n">
+      <c r="AG12" s="0" t="n">
         <v>5415000000.0</v>
       </c>
-      <c r="AG12" s="0" t="n">
+      <c r="AH12" s="0" t="n">
         <v>4673000000.0</v>
       </c>
-      <c r="AH12" s="0" t="n">
+      <c r="AI12" s="0" t="n">
         <v>4787000000.0</v>
       </c>
-      <c r="AI12" s="0" t="n">
+      <c r="AJ12" s="0" t="n">
         <v>3541000000.0</v>
       </c>
-      <c r="AJ12" s="0" t="n">
+      <c r="AK12" s="0" t="n">
         <v>3030000000.0</v>
       </c>
-      <c r="AK12" s="0" t="n">
+      <c r="AL12" s="0" t="n">
         <v>3552000000.0</v>
       </c>
-      <c r="AL12" s="0" t="n">
+      <c r="AM12" s="0" t="n">
         <v>2860000000.0</v>
       </c>
-      <c r="AM12" s="0" t="n">
+      <c r="AN12" s="0" t="n">
         <v>3517000000.0</v>
       </c>
-      <c r="AN12" s="0" t="n">
+      <c r="AO12" s="0" t="n">
         <v>3110000000.0</v>
       </c>
     </row>
@@ -1788,120 +1831,123 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
+        <v>-1627000000.0</v>
+      </c>
+      <c r="C13" s="0" t="n">
         <v>-1947000000.0</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="D13" s="0" t="n">
         <v>-2404000000.0</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="E13" s="0" t="n">
         <v>-2721000000.0</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="F13" s="0" t="n">
         <v>-2755000000.0</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="G13" s="0" t="n">
         <v>-2694000000.0</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="H13" s="0" t="n">
         <v>-2661000000.0</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="I13" s="0" t="n">
         <v>-2401000000.0</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="J13" s="0" t="n">
         <v>-2275000000.0</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="K13" s="0" t="n">
         <v>-2105000000.0</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="L13" s="0" t="n">
         <v>-1808000000.0</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="M13" s="0" t="n">
         <v>-1644000000.0</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="N13" s="0" t="n">
         <v>-1555000000.0</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="O13" s="0" t="n">
         <v>-1547000000.0</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="P13" s="0" t="n">
         <v>-1713000000.0</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="Q13" s="0" t="n">
         <v>-1981000000.0</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="R13" s="0" t="n">
         <v>-2137000000.0</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="S13" s="0" t="n">
         <v>-2243000000.0</v>
       </c>
-      <c r="S13" s="0" t="n">
+      <c r="T13" s="0" t="n">
         <v>-2159000000.0</v>
       </c>
-      <c r="T13" s="0" t="n">
+      <c r="U13" s="0" t="n">
         <v>-1946000000.0</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="V13" s="0" t="n">
         <v>-1661000000.0</v>
       </c>
-      <c r="V13" s="0" t="n">
+      <c r="W13" s="0" t="n">
         <v>-1440000000.0</v>
       </c>
-      <c r="W13" s="0" t="n">
+      <c r="X13" s="0" t="n">
         <v>-1360000000.0</v>
       </c>
-      <c r="X13" s="0" t="n">
+      <c r="Y13" s="0" t="n">
         <v>-1325000000.0</v>
       </c>
-      <c r="Y13" s="0" t="n">
+      <c r="Z13" s="0" t="n">
         <v>-1462000000.0</v>
       </c>
-      <c r="Z13" s="0" t="n">
+      <c r="AA13" s="0" t="n">
         <v>-1499000000.0</v>
       </c>
-      <c r="AA13" s="0" t="n">
+      <c r="AB13" s="0" t="n">
         <v>-1456000000.0</v>
       </c>
-      <c r="AB13" s="0" t="n">
+      <c r="AC13" s="0" t="n">
         <v>-1541000000.0</v>
       </c>
-      <c r="AC13" s="0" t="n">
+      <c r="AD13" s="0" t="n">
         <v>-1513000000.0</v>
       </c>
-      <c r="AD13" s="0" t="n">
+      <c r="AE13" s="0" t="n">
         <v>-1561000000.0</v>
       </c>
-      <c r="AE13" s="0" t="n">
+      <c r="AF13" s="0" t="n">
         <v>-1534000000.0</v>
       </c>
-      <c r="AF13" s="0" t="n">
+      <c r="AG13" s="0" t="n">
         <v>-1377000000.0</v>
       </c>
-      <c r="AG13" s="0" t="n">
+      <c r="AH13" s="0" t="n">
         <v>-1223000000.0</v>
       </c>
-      <c r="AH13" s="0" t="n">
+      <c r="AI13" s="0" t="n">
         <v>-1060000000.0</v>
       </c>
-      <c r="AI13" s="0" t="n">
+      <c r="AJ13" s="0" t="n">
         <v>-1016000000.0</v>
       </c>
-      <c r="AJ13" s="0" t="n">
+      <c r="AK13" s="0" t="n">
         <v>-1028000000.0</v>
       </c>
-      <c r="AK13" s="0" t="n">
+      <c r="AL13" s="0" t="n">
         <v>-991000000.0</v>
       </c>
-      <c r="AL13" s="0" t="n">
+      <c r="AM13" s="0" t="n">
         <v>-979000000.0</v>
       </c>
-      <c r="AM13" s="0" t="n">
+      <c r="AN13" s="0" t="n">
         <v>-736000000.0</v>
       </c>
-      <c r="AN13" s="0" t="n">
+      <c r="AO13" s="0" t="n">
         <v>-615000000.0</v>
       </c>
     </row>
@@ -1911,28 +1957,28 @@
           <t>Net Aquisitions</t>
         </is>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C14" s="0" t="n">
         <v>-2450000000.0</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="D14" s="0" t="n">
         <v>-477000000.0</v>
       </c>
-      <c r="D14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F14" s="0" t="n">
         <v>-1781000000.0</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="G14" s="0" t="n">
         <v>-1751000000.0</v>
       </c>
-      <c r="G14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
           <t/>
@@ -1943,55 +1989,55 @@
           <t/>
         </is>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K14" s="0" t="n">
         <v>-1601000000.0</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="L14" s="0" t="n">
         <v>-1556000000.0</v>
       </c>
-      <c r="L14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="M14" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="N14" s="0" t="n">
-        <v>227000000.0</v>
+      <c r="N14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="O14" s="0" t="n">
         <v>227000000.0</v>
       </c>
-      <c r="P14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="P14" s="0" t="n">
+        <v>227000000.0</v>
       </c>
       <c r="Q14" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="R14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S14" s="0" t="n">
         <v>209000000.0</v>
       </c>
-      <c r="S14" s="0" t="n">
+      <c r="T14" s="0" t="n">
         <v>192000000.0</v>
       </c>
-      <c r="T14" s="0" t="n">
+      <c r="U14" s="0" t="n">
         <v>186000000.0</v>
       </c>
-      <c r="U14" s="0" t="n">
+      <c r="V14" s="0" t="n">
         <v>174000000.0</v>
       </c>
-      <c r="V14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="W14" s="0" t="inlineStr">
         <is>
           <t/>
@@ -2078,6 +2124,11 @@
         </is>
       </c>
       <c r="AN14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO14" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2090,96 +2141,94 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
+        <v>-82000000.0</v>
+      </c>
+      <c r="C15" s="0" t="n">
         <v>-264000000.0</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="D15" s="0" t="n">
         <v>-288000000.0</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="E15" s="0" t="n">
         <v>-175000000.0</v>
       </c>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G15" s="0" t="n">
         <v>403000000.0</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>524000000.0</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>524000000.0</v>
       </c>
       <c r="I15" s="0" t="n">
+        <v>524000000.0</v>
+      </c>
+      <c r="J15" s="0" t="n">
         <v>396000000.0</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="K15" s="0" t="n">
         <v>373000000.0</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="L15" s="0" t="n">
         <v>360000000.0</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="M15" s="0" t="n">
         <v>372000000.0</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="N15" s="0" t="n">
         <v>232000000.0</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="O15" s="0" t="n">
         <v>-79000000.0</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="P15" s="0" t="n">
         <v>-75000000.0</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="Q15" s="0" t="n">
         <v>-155000000.0</v>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="R15" s="0" t="n">
         <v>203000000.0</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="S15" s="0" t="n">
         <v>-14000000.0</v>
       </c>
-      <c r="S15" s="0" t="n">
+      <c r="T15" s="0" t="n">
         <v>483000000.0</v>
       </c>
-      <c r="T15" s="0" t="n">
+      <c r="U15" s="0" t="n">
         <v>937000000.0</v>
       </c>
-      <c r="U15" s="0" t="n">
+      <c r="V15" s="0" t="n">
         <v>170000000.0</v>
       </c>
-      <c r="V15" s="0" t="n">
+      <c r="W15" s="0" t="n">
         <v>416000000.0</v>
       </c>
-      <c r="W15" s="0" t="n">
+      <c r="X15" s="0" t="n">
         <v>-168000000.0</v>
       </c>
-      <c r="X15" s="0" t="n">
+      <c r="Y15" s="0" t="n">
         <v>-586000000.0</v>
       </c>
-      <c r="Y15" s="0" t="n">
+      <c r="Z15" s="0" t="n">
         <v>-288000000.0</v>
       </c>
-      <c r="Z15" s="0" t="n">
+      <c r="AA15" s="0" t="n">
         <v>-1688000000.0</v>
       </c>
-      <c r="AA15" s="0" t="n">
+      <c r="AB15" s="0" t="n">
         <v>-1605000000.0</v>
       </c>
-      <c r="AB15" s="0" t="n">
+      <c r="AC15" s="0" t="n">
         <v>-1573000000.0</v>
       </c>
-      <c r="AC15" s="0" t="n">
+      <c r="AD15" s="0" t="n">
         <v>-1397000000.0</v>
       </c>
-      <c r="AD15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AE15" s="0" t="inlineStr">
         <is>
           <t/>
@@ -2226,6 +2275,11 @@
         </is>
       </c>
       <c r="AN15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO15" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2238,87 +2292,85 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
+        <v>-70000000.0</v>
+      </c>
+      <c r="C16" s="0" t="n">
         <v>-295000000.0</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="D16" s="0" t="n">
         <v>540000000.0</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="E16" s="0" t="n">
         <v>311000000.0</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="F16" s="0" t="n">
         <v>665000000.0</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="G16" s="0" t="n">
         <v>826000000.0</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="H16" s="0" t="n">
         <v>373000000.0</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="I16" s="0" t="n">
         <v>357000000.0</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="J16" s="0" t="n">
         <v>225000000.0</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="K16" s="0" t="n">
         <v>-546000000.0</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="L16" s="0" t="n">
         <v>-636000000.0</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="M16" s="0" t="n">
         <v>-629000000.0</v>
       </c>
-      <c r="M16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N16" s="0" t="n">
+      <c r="N16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O16" s="0" t="n">
         <v>-789000000.0</v>
       </c>
-      <c r="O16" s="0" t="n">
+      <c r="P16" s="0" t="n">
         <v>-348000000.0</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="Q16" s="0" t="n">
         <v>-132000000.0</v>
       </c>
-      <c r="Q16" s="0" t="n">
+      <c r="R16" s="0" t="n">
         <v>504000000.0</v>
       </c>
-      <c r="R16" s="0" t="n">
+      <c r="S16" s="0" t="n">
         <v>-126000000.0</v>
       </c>
-      <c r="S16" s="0" t="n">
+      <c r="T16" s="0" t="n">
         <v>92000000.0</v>
       </c>
-      <c r="T16" s="0" t="n">
+      <c r="U16" s="0" t="n">
         <v>-25000000.0</v>
       </c>
-      <c r="U16" s="0" t="n">
+      <c r="V16" s="0" t="n">
         <v>-650000000.0</v>
       </c>
-      <c r="V16" s="0" t="n">
+      <c r="W16" s="0" t="n">
         <v>-47000000.0</v>
       </c>
-      <c r="W16" s="0" t="n">
+      <c r="X16" s="0" t="n">
         <v>-247000000.0</v>
       </c>
-      <c r="X16" s="0" t="n">
+      <c r="Y16" s="0" t="n">
         <v>-569000000.0</v>
       </c>
-      <c r="Y16" s="0" t="n">
+      <c r="Z16" s="0" t="n">
         <v>-224000000.0</v>
       </c>
-      <c r="Z16" s="0" t="n">
+      <c r="AA16" s="0" t="n">
         <v>-350000000.0</v>
       </c>
-      <c r="AA16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AB16" s="0" t="inlineStr">
         <is>
           <t/>
@@ -2380,6 +2432,11 @@
         </is>
       </c>
       <c r="AN16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO16" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2392,122 +2449,125 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
+        <v>170000000.0</v>
+      </c>
+      <c r="C17" s="0" t="n">
         <v>-62000000.0</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="D17" s="0" t="n">
         <v>507000000.0</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="E17" s="0" t="n">
         <v>499000000.0</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="F17" s="0" t="n">
         <v>149000000.0</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="G17" s="0" t="n">
         <v>351000000.0</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="H17" s="0" t="n">
         <v>-124000000.0</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="I17" s="0" t="n">
         <v>-150000000.0</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="J17" s="0" t="n">
         <v>-138000000.0</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="K17" s="0" t="n">
         <v>-134000000.0</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="L17" s="0" t="n">
         <v>408000000.0</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="M17" s="0" t="n">
         <v>446000000.0</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="N17" s="0" t="n">
         <v>431000000.0</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="O17" s="0" t="n">
         <v>504000000.0</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="P17" s="0" t="n">
         <v>-109000000.0</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="Q17" s="0" t="n">
         <v>-88000000.0</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="R17" s="0" t="n">
         <v>-887000000.0</v>
       </c>
-      <c r="R17" s="0" t="n">
+      <c r="S17" s="0" t="n">
         <v>-127000000.0</v>
       </c>
-      <c r="S17" s="0" t="n">
+      <c r="T17" s="0" t="n">
         <v>-33000000.0</v>
       </c>
-      <c r="T17" s="0" t="n">
+      <c r="U17" s="0" t="n">
         <v>-50000000.0</v>
       </c>
-      <c r="U17" s="0" t="n">
+      <c r="V17" s="0" t="n">
         <v>804000000.0</v>
       </c>
-      <c r="V17" s="0" t="n">
+      <c r="W17" s="0" t="n">
         <v>25000000.0</v>
-      </c>
-      <c r="W17" s="0" t="n">
-        <v>36000000.0</v>
       </c>
       <c r="X17" s="0" t="n">
         <v>36000000.0</v>
       </c>
       <c r="Y17" s="0" t="n">
+        <v>36000000.0</v>
+      </c>
+      <c r="Z17" s="0" t="n">
         <v>11000000.0</v>
       </c>
-      <c r="Z17" s="0" t="n">
+      <c r="AA17" s="0" t="n">
         <v>6000000.0</v>
       </c>
-      <c r="AA17" s="0" t="n">
+      <c r="AB17" s="0" t="n">
         <v>-1000000.0</v>
-      </c>
-      <c r="AB17" s="0" t="n">
-        <v>-20000000.0</v>
       </c>
       <c r="AC17" s="0" t="n">
         <v>-20000000.0</v>
       </c>
       <c r="AD17" s="0" t="n">
+        <v>-20000000.0</v>
+      </c>
+      <c r="AE17" s="0" t="n">
         <v>-41000000.0</v>
       </c>
-      <c r="AE17" s="0" t="n">
+      <c r="AF17" s="0" t="n">
         <v>-66000000.0</v>
       </c>
-      <c r="AF17" s="0" t="n">
+      <c r="AG17" s="0" t="n">
         <v>-51000000.0</v>
       </c>
-      <c r="AG17" s="0" t="n">
+      <c r="AH17" s="0" t="n">
         <v>-61000000.0</v>
       </c>
-      <c r="AH17" s="0" t="n">
+      <c r="AI17" s="0" t="n">
         <v>-1000000.0</v>
       </c>
-      <c r="AI17" s="0" t="n">
+      <c r="AJ17" s="0" t="n">
         <v>270000000.0</v>
       </c>
-      <c r="AJ17" s="0" t="n">
+      <c r="AK17" s="0" t="n">
         <v>228000000.0</v>
       </c>
-      <c r="AK17" s="0" t="n">
+      <c r="AL17" s="0" t="n">
         <v>1000000.0</v>
       </c>
-      <c r="AL17" s="0" t="n">
+      <c r="AM17" s="0" t="n">
         <v>-64000000.0</v>
       </c>
-      <c r="AM17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AN17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO17" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2520,120 +2580,123 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
+        <v>-4302000000.0</v>
+      </c>
+      <c r="C18" s="0" t="n">
         <v>-4936000000.0</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="D18" s="0" t="n">
         <v>-2762000000.0</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="E18" s="0" t="n">
         <v>-2936000000.0</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="F18" s="0" t="n">
         <v>-2150000000.0</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="G18" s="0" t="n">
         <v>-1635000000.0</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="H18" s="0" t="n">
         <v>-1868000000.0</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="I18" s="0" t="n">
         <v>-3426000000.0</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="J18" s="0" t="n">
         <v>-3548000000.0</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="K18" s="0" t="n">
         <v>-3559000000.0</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="L18" s="0" t="n">
         <v>-3403000000.0</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="M18" s="0" t="n">
         <v>-1291000000.0</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="N18" s="0" t="n">
         <v>-1404000000.0</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="O18" s="0" t="n">
         <v>-1756000000.0</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="P18" s="0" t="n">
         <v>-2025000000.0</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="Q18" s="0" t="n">
         <v>-2284000000.0</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="R18" s="0" t="n">
         <v>-2245000000.0</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="S18" s="0" t="n">
         <v>-2301000000.0</v>
       </c>
-      <c r="S18" s="0" t="n">
+      <c r="T18" s="0" t="n">
         <v>-1473000000.0</v>
       </c>
-      <c r="T18" s="0" t="n">
+      <c r="U18" s="0" t="n">
         <v>-947000000.0</v>
       </c>
-      <c r="U18" s="0" t="n">
+      <c r="V18" s="0" t="n">
         <v>-1200000000.0</v>
       </c>
-      <c r="V18" s="0" t="n">
+      <c r="W18" s="0" t="n">
         <v>-1046000000.0</v>
       </c>
-      <c r="W18" s="0" t="n">
+      <c r="X18" s="0" t="n">
         <v>-1739000000.0</v>
       </c>
-      <c r="X18" s="0" t="n">
+      <c r="Y18" s="0" t="n">
         <v>-2444000000.0</v>
       </c>
-      <c r="Y18" s="0" t="n">
+      <c r="Z18" s="0" t="n">
         <v>-1963000000.0</v>
       </c>
-      <c r="Z18" s="0" t="n">
+      <c r="AA18" s="0" t="n">
         <v>-3531000000.0</v>
       </c>
-      <c r="AA18" s="0" t="n">
+      <c r="AB18" s="0" t="n">
         <v>-3262000000.0</v>
       </c>
-      <c r="AB18" s="0" t="n">
+      <c r="AC18" s="0" t="n">
         <v>-3062000000.0</v>
       </c>
-      <c r="AC18" s="0" t="n">
+      <c r="AD18" s="0" t="n">
         <v>-3205000000.0</v>
       </c>
-      <c r="AD18" s="0" t="n">
+      <c r="AE18" s="0" t="n">
         <v>-1602000000.0</v>
       </c>
-      <c r="AE18" s="0" t="n">
+      <c r="AF18" s="0" t="n">
         <v>-1552000000.0</v>
       </c>
-      <c r="AF18" s="0" t="n">
+      <c r="AG18" s="0" t="n">
         <v>-1380000000.0</v>
       </c>
-      <c r="AG18" s="0" t="n">
+      <c r="AH18" s="0" t="n">
         <v>-1236000000.0</v>
       </c>
-      <c r="AH18" s="0" t="n">
+      <c r="AI18" s="0" t="n">
         <v>-1013000000.0</v>
       </c>
-      <c r="AI18" s="0" t="n">
+      <c r="AJ18" s="0" t="n">
         <v>-746000000.0</v>
       </c>
-      <c r="AJ18" s="0" t="n">
+      <c r="AK18" s="0" t="n">
         <v>-800000000.0</v>
       </c>
-      <c r="AK18" s="0" t="n">
+      <c r="AL18" s="0" t="n">
         <v>-990000000.0</v>
       </c>
-      <c r="AL18" s="0" t="n">
+      <c r="AM18" s="0" t="n">
         <v>-1021000000.0</v>
       </c>
-      <c r="AM18" s="0" t="n">
+      <c r="AN18" s="0" t="n">
         <v>-1028000000.0</v>
       </c>
-      <c r="AN18" s="0" t="n">
+      <c r="AO18" s="0" t="n">
         <v>-864000000.0</v>
       </c>
     </row>
@@ -2644,130 +2707,133 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
+        <v>1673000000.0</v>
+      </c>
+      <c r="C19" s="0" t="n">
         <v>3689000000.0</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="D19" s="0" t="n">
         <v>2084000000.0</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="E19" s="0" t="n">
         <v>3807000000.0</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="F19" s="0" t="n">
         <v>2988000000.0</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="G19" s="0" t="n">
         <v>2472000000.0</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="H19" s="0" t="n">
         <v>3243000000.0</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="I19" s="0" t="n">
         <v>1288000000.0</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="J19" s="0" t="n">
         <v>1101000000.0</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="K19" s="0" t="n">
         <v>-77000000.0</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="L19" s="0" t="n">
         <v>-797000000.0</v>
       </c>
-      <c r="L19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="M19" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="N19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O19" s="0" t="n">
         <v>-503000000.0</v>
       </c>
-      <c r="O19" s="0" t="n">
+      <c r="P19" s="0" t="n">
         <v>-188000000.0</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="Q19" s="0" t="n">
         <v>-33000000.0</v>
       </c>
-      <c r="Q19" s="0" t="n">
+      <c r="R19" s="0" t="n">
         <v>40000000.0</v>
       </c>
-      <c r="R19" s="0" t="n">
+      <c r="S19" s="0" t="n">
         <v>989000000.0</v>
       </c>
-      <c r="S19" s="0" t="n">
+      <c r="T19" s="0" t="n">
         <v>819000000.0</v>
       </c>
-      <c r="T19" s="0" t="n">
+      <c r="U19" s="0" t="n">
         <v>835000000.0</v>
       </c>
-      <c r="U19" s="0" t="n">
+      <c r="V19" s="0" t="n">
         <v>881000000.0</v>
       </c>
-      <c r="V19" s="0" t="n">
+      <c r="W19" s="0" t="n">
         <v>1045000000.0</v>
       </c>
-      <c r="W19" s="0" t="n">
+      <c r="X19" s="0" t="n">
         <v>1477000000.0</v>
       </c>
-      <c r="X19" s="0" t="n">
+      <c r="Y19" s="0" t="n">
         <v>1484000000.0</v>
       </c>
-      <c r="Y19" s="0" t="n">
+      <c r="Z19" s="0" t="n">
         <v>1415000000.0</v>
       </c>
-      <c r="Z19" s="0" t="n">
+      <c r="AA19" s="0" t="n">
         <v>1254000000.0</v>
       </c>
-      <c r="AA19" s="0" t="n">
+      <c r="AB19" s="0" t="n">
         <v>993000000.0</v>
-      </c>
-      <c r="AB19" s="0" t="n">
-        <v>2464000000.0</v>
       </c>
       <c r="AC19" s="0" t="n">
         <v>2464000000.0</v>
       </c>
       <c r="AD19" s="0" t="n">
+        <v>2464000000.0</v>
+      </c>
+      <c r="AE19" s="0" t="n">
         <v>1472000000.0</v>
       </c>
-      <c r="AE19" s="0" t="n">
+      <c r="AF19" s="0" t="n">
         <v>1792000000.0</v>
       </c>
-      <c r="AF19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AG19" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AH19" s="0" t="n">
-        <v>-1482000000.0</v>
+      <c r="AH19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="AI19" s="0" t="n">
         <v>-1482000000.0</v>
       </c>
       <c r="AJ19" s="0" t="n">
+        <v>-1482000000.0</v>
+      </c>
+      <c r="AK19" s="0" t="n">
         <v>-1742000000.0</v>
       </c>
-      <c r="AK19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AL19" s="0" t="n">
+      <c r="AL19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM19" s="0" t="n">
         <v>-3298000000.0</v>
       </c>
-      <c r="AM19" s="0" t="n">
+      <c r="AN19" s="0" t="n">
         <v>-1574000000.0</v>
       </c>
-      <c r="AN19" s="0" t="n">
+      <c r="AO19" s="0" t="n">
         <v>-1183000000.0</v>
       </c>
     </row>
@@ -2777,104 +2843,104 @@
           <t>Equity Repurchase (Common, Net)</t>
         </is>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>-4000000.0</v>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="C20" s="0" t="n">
         <v>-4000000.0</v>
       </c>
       <c r="D20" s="0" t="n">
+        <v>-4000000.0</v>
+      </c>
+      <c r="E20" s="0" t="n">
         <v>-3244000000.0</v>
       </c>
-      <c r="E20" s="0" t="n">
-        <v>-2169000000.0</v>
-      </c>
       <c r="F20" s="0" t="n">
+        <v>-2685000000.0</v>
+      </c>
+      <c r="G20" s="0" t="n">
         <v>-3752000000.0</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="H20" s="0" t="n">
         <v>-4805000000.0</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="I20" s="0" t="n">
         <v>-1896000000.0</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="J20" s="0" t="n">
         <v>-2806000000.0</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="K20" s="0" t="n">
         <v>-1854000000.0</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="L20" s="0" t="n">
         <v>-801000000.0</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="M20" s="0" t="n">
         <v>-766000000.0</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="N20" s="0" t="n">
         <v>-825000000.0</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="O20" s="0" t="n">
         <v>-866000000.0</v>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="P20" s="0" t="n">
         <v>-1303000000.0</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="Q20" s="0" t="n">
         <v>-1826000000.0</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="R20" s="0" t="n">
         <v>-2112000000.0</v>
       </c>
-      <c r="R20" s="0" t="n">
+      <c r="S20" s="0" t="n">
         <v>-2938000000.0</v>
       </c>
-      <c r="S20" s="0" t="n">
+      <c r="T20" s="0" t="n">
         <v>-3721000000.0</v>
       </c>
-      <c r="T20" s="0" t="n">
+      <c r="U20" s="0" t="n">
         <v>-4201000000.0</v>
       </c>
-      <c r="U20" s="0" t="n">
+      <c r="V20" s="0" t="n">
         <v>-4283000000.0</v>
       </c>
-      <c r="V20" s="0" t="n">
+      <c r="W20" s="0" t="n">
         <v>-4656000000.0</v>
       </c>
-      <c r="W20" s="0" t="n">
+      <c r="X20" s="0" t="n">
         <v>-4877000000.0</v>
       </c>
-      <c r="X20" s="0" t="n">
+      <c r="Y20" s="0" t="n">
         <v>-4858000000.0</v>
       </c>
-      <c r="Y20" s="0" t="n">
+      <c r="Z20" s="0" t="n">
         <v>-5946000000.0</v>
       </c>
-      <c r="Z20" s="0" t="n">
+      <c r="AA20" s="0" t="n">
         <v>-5788000000.0</v>
       </c>
-      <c r="AA20" s="0" t="n">
+      <c r="AB20" s="0" t="n">
         <v>-5045000000.0</v>
       </c>
-      <c r="AB20" s="0" t="n">
+      <c r="AC20" s="0" t="n">
         <v>-4746000000.0</v>
       </c>
-      <c r="AC20" s="0" t="n">
+      <c r="AD20" s="0" t="n">
         <v>-3150000000.0</v>
       </c>
-      <c r="AD20" s="0" t="n">
+      <c r="AE20" s="0" t="n">
         <v>-1949000000.0</v>
       </c>
-      <c r="AE20" s="0" t="n">
+      <c r="AF20" s="0" t="n">
         <v>-1251000000.0</v>
       </c>
-      <c r="AF20" s="0" t="n">
+      <c r="AG20" s="0" t="n">
         <v>-233000000.0</v>
       </c>
-      <c r="AG20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AH20" s="0" t="inlineStr">
         <is>
           <t/>
@@ -2900,10 +2966,15 @@
           <t/>
         </is>
       </c>
-      <c r="AM20" s="0" t="n">
+      <c r="AM20" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN20" s="0" t="n">
         <v>37000000.0</v>
       </c>
-      <c r="AN20" s="0" t="n">
+      <c r="AO20" s="0" t="n">
         <v>37000000.0</v>
       </c>
     </row>
@@ -2914,124 +2985,127 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
+        <v>-1406000000.0</v>
+      </c>
+      <c r="C21" s="0" t="n">
         <v>-1405000000.0</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="D21" s="0" t="n">
         <v>-1404000000.0</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="E21" s="0" t="n">
         <v>-1403000000.0</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="F21" s="0" t="n">
         <v>-1441000000.0</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="G21" s="0" t="n">
         <v>-1462000000.0</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="H21" s="0" t="n">
         <v>-1489000000.0</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="I21" s="0" t="n">
         <v>-1527000000.0</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="J21" s="0" t="n">
         <v>-1531000000.0</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="K21" s="0" t="n">
         <v>-1554000000.0</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="L21" s="0" t="n">
         <v>-1531000000.0</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="M21" s="0" t="n">
         <v>-1498000000.0</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="N21" s="0" t="n">
         <v>-1467000000.0</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="O21" s="0" t="n">
         <v>-1415000000.0</v>
       </c>
-      <c r="O21" s="0" t="n">
+      <c r="P21" s="0" t="n">
         <v>-1406000000.0</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="Q21" s="0" t="n">
         <v>-1401000000.0</v>
       </c>
-      <c r="Q21" s="0" t="n">
+      <c r="R21" s="0" t="n">
         <v>-1402000000.0</v>
       </c>
-      <c r="R21" s="0" t="n">
+      <c r="S21" s="0" t="n">
         <v>-1395000000.0</v>
       </c>
-      <c r="S21" s="0" t="n">
+      <c r="T21" s="0" t="n">
         <v>-1396000000.0</v>
       </c>
-      <c r="T21" s="0" t="n">
+      <c r="U21" s="0" t="n">
         <v>-1406000000.0</v>
       </c>
-      <c r="U21" s="0" t="n">
+      <c r="V21" s="0" t="n">
         <v>-1412000000.0</v>
       </c>
-      <c r="V21" s="0" t="n">
+      <c r="W21" s="0" t="n">
         <v>-1410000000.0</v>
       </c>
-      <c r="W21" s="0" t="n">
+      <c r="X21" s="0" t="n">
         <v>-1411000000.0</v>
       </c>
-      <c r="X21" s="0" t="n">
+      <c r="Y21" s="0" t="n">
         <v>-1408000000.0</v>
       </c>
-      <c r="Y21" s="0" t="n">
+      <c r="Z21" s="0" t="n">
         <v>-1410000000.0</v>
       </c>
-      <c r="Z21" s="0" t="n">
+      <c r="AA21" s="0" t="n">
         <v>-1403000000.0</v>
       </c>
-      <c r="AA21" s="0" t="n">
+      <c r="AB21" s="0" t="n">
         <v>-1665000000.0</v>
       </c>
-      <c r="AB21" s="0" t="n">
+      <c r="AC21" s="0" t="n">
         <v>-1334000000.0</v>
       </c>
-      <c r="AC21" s="0" t="n">
+      <c r="AD21" s="0" t="n">
         <v>-1225000000.0</v>
       </c>
-      <c r="AD21" s="0" t="n">
+      <c r="AE21" s="0" t="n">
         <v>-1127000000.0</v>
       </c>
-      <c r="AE21" s="0" t="n">
+      <c r="AF21" s="0" t="n">
         <v>-2329000000.0</v>
       </c>
-      <c r="AF21" s="0" t="n">
+      <c r="AG21" s="0" t="n">
         <v>-2532000000.0</v>
       </c>
-      <c r="AG21" s="0" t="n">
+      <c r="AH21" s="0" t="n">
         <v>-2501000000.0</v>
       </c>
-      <c r="AH21" s="0" t="n">
+      <c r="AI21" s="0" t="n">
         <v>-2415000000.0</v>
       </c>
-      <c r="AI21" s="0" t="n">
+      <c r="AJ21" s="0" t="n">
         <v>-3325000000.0</v>
       </c>
-      <c r="AJ21" s="0" t="n">
+      <c r="AK21" s="0" t="n">
         <v>-3209000000.0</v>
       </c>
-      <c r="AK21" s="0" t="n">
+      <c r="AL21" s="0" t="n">
         <v>-3036000000.0</v>
       </c>
-      <c r="AL21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AM21" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AN21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO21" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3044,122 +3118,125 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
+        <v>464000000.0</v>
+      </c>
+      <c r="C22" s="0" t="n">
         <v>601000000.0</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="D22" s="0" t="n">
         <v>960000000.0</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="E22" s="0" t="n">
         <v>550000000.0</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="F22" s="0" t="n">
         <v>278000000.0</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="G22" s="0" t="n">
         <v>-7000000.0</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="H22" s="0" t="n">
         <v>-97000000.0</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="I22" s="0" t="n">
         <v>-90000000.0</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="J22" s="0" t="n">
         <v>-88000000.0</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="K22" s="0" t="n">
         <v>-16000000.0</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="L22" s="0" t="n">
         <v>-9000000.0</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="M22" s="0" t="n">
         <v>-8000000.0</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="N22" s="0" t="n">
         <v>-7000000.0</v>
       </c>
-      <c r="N22" s="0" t="n">
+      <c r="O22" s="0" t="n">
         <v>-75000000.0</v>
-      </c>
-      <c r="O22" s="0" t="n">
-        <v>-76000000.0</v>
       </c>
       <c r="P22" s="0" t="n">
         <v>-76000000.0</v>
       </c>
       <c r="Q22" s="0" t="n">
+        <v>-76000000.0</v>
+      </c>
+      <c r="R22" s="0" t="n">
         <v>-79000000.0</v>
       </c>
-      <c r="R22" s="0" t="n">
+      <c r="S22" s="0" t="n">
         <v>-12000000.0</v>
       </c>
-      <c r="S22" s="0" t="n">
+      <c r="T22" s="0" t="n">
         <v>-30000000.0</v>
       </c>
-      <c r="T22" s="0" t="n">
+      <c r="U22" s="0" t="n">
         <v>28000000.0</v>
       </c>
-      <c r="U22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V22" s="0" t="n">
+      <c r="V22" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W22" s="0" t="n">
         <v>171000000.0</v>
       </c>
-      <c r="W22" s="0" t="n">
+      <c r="X22" s="0" t="n">
         <v>186000000.0</v>
       </c>
-      <c r="X22" s="0" t="n">
+      <c r="Y22" s="0" t="n">
         <v>220000000.0</v>
       </c>
-      <c r="Y22" s="0" t="n">
+      <c r="Z22" s="0" t="n">
         <v>183000000.0</v>
-      </c>
-      <c r="Z22" s="0" t="n">
-        <v>30000000.0</v>
       </c>
       <c r="AA22" s="0" t="n">
         <v>30000000.0</v>
       </c>
       <c r="AB22" s="0" t="n">
+        <v>30000000.0</v>
+      </c>
+      <c r="AC22" s="0" t="n">
         <v>2000000.0</v>
       </c>
-      <c r="AC22" s="0" t="n">
+      <c r="AD22" s="0" t="n">
         <v>6000000.0</v>
       </c>
-      <c r="AD22" s="0" t="n">
+      <c r="AE22" s="0" t="n">
         <v>15000000.0</v>
       </c>
-      <c r="AE22" s="0" t="n">
+      <c r="AF22" s="0" t="n">
         <v>-7000000.0</v>
       </c>
-      <c r="AF22" s="0" t="n">
+      <c r="AG22" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="AG22" s="0" t="n">
+      <c r="AH22" s="0" t="n">
         <v>-59000000.0</v>
       </c>
-      <c r="AH22" s="0" t="n">
+      <c r="AI22" s="0" t="n">
         <v>-51000000.0</v>
-      </c>
-      <c r="AI22" s="0" t="n">
-        <v>-13000000.0</v>
       </c>
       <c r="AJ22" s="0" t="n">
         <v>-13000000.0</v>
       </c>
       <c r="AK22" s="0" t="n">
+        <v>-13000000.0</v>
+      </c>
+      <c r="AL22" s="0" t="n">
         <v>13000000.0</v>
       </c>
-      <c r="AL22" s="0" t="n">
+      <c r="AM22" s="0" t="n">
         <v>1000000.0</v>
       </c>
-      <c r="AM22" s="0" t="n">
+      <c r="AN22" s="0" t="n">
         <v>-27000000.0</v>
       </c>
-      <c r="AN22" s="0" t="n">
+      <c r="AO22" s="0" t="n">
         <v>-32000000.0</v>
       </c>
     </row>
@@ -3170,120 +3247,123 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
+        <v>605000000.0</v>
+      </c>
+      <c r="C23" s="0" t="n">
         <v>2301000000.0</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="D23" s="0" t="n">
         <v>769000000.0</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="E23" s="0" t="n">
         <v>-755000000.0</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="F23" s="0" t="n">
         <v>-1400000000.0</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="G23" s="0" t="n">
         <v>-2835000000.0</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="H23" s="0" t="n">
         <v>-3148000000.0</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="I23" s="0" t="n">
         <v>-2225000000.0</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="J23" s="0" t="n">
         <v>-3009000000.0</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="K23" s="0" t="n">
         <v>-3008000000.0</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="L23" s="0" t="n">
         <v>-2910000000.0</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="M23" s="0" t="n">
         <v>-2765000000.0</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="N23" s="0" t="n">
         <v>-2842000000.0</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="O23" s="0" t="n">
         <v>-2859000000.0</v>
       </c>
-      <c r="O23" s="0" t="n">
+      <c r="P23" s="0" t="n">
         <v>-2973000000.0</v>
       </c>
-      <c r="P23" s="0" t="n">
+      <c r="Q23" s="0" t="n">
         <v>-3336000000.0</v>
       </c>
-      <c r="Q23" s="0" t="n">
+      <c r="R23" s="0" t="n">
         <v>-3553000000.0</v>
       </c>
-      <c r="R23" s="0" t="n">
+      <c r="S23" s="0" t="n">
         <v>-3349000000.0</v>
       </c>
-      <c r="S23" s="0" t="n">
+      <c r="T23" s="0" t="n">
         <v>-4311000000.0</v>
       </c>
-      <c r="T23" s="0" t="n">
+      <c r="U23" s="0" t="n">
         <v>-4800000000.0</v>
       </c>
-      <c r="U23" s="0" t="n">
+      <c r="V23" s="0" t="n">
         <v>-4782000000.0</v>
       </c>
-      <c r="V23" s="0" t="n">
+      <c r="W23" s="0" t="n">
         <v>-4850000000.0</v>
       </c>
-      <c r="W23" s="0" t="n">
+      <c r="X23" s="0" t="n">
         <v>-4625000000.0</v>
       </c>
-      <c r="X23" s="0" t="n">
+      <c r="Y23" s="0" t="n">
         <v>-4562000000.0</v>
       </c>
-      <c r="Y23" s="0" t="n">
+      <c r="Z23" s="0" t="n">
         <v>-5758000000.0</v>
       </c>
-      <c r="Z23" s="0" t="n">
+      <c r="AA23" s="0" t="n">
         <v>-5907000000.0</v>
       </c>
-      <c r="AA23" s="0" t="n">
+      <c r="AB23" s="0" t="n">
         <v>-5687000000.0</v>
       </c>
-      <c r="AB23" s="0" t="n">
+      <c r="AC23" s="0" t="n">
         <v>-3614000000.0</v>
       </c>
-      <c r="AC23" s="0" t="n">
+      <c r="AD23" s="0" t="n">
         <v>-1905000000.0</v>
       </c>
-      <c r="AD23" s="0" t="n">
+      <c r="AE23" s="0" t="n">
         <v>-1589000000.0</v>
       </c>
-      <c r="AE23" s="0" t="n">
+      <c r="AF23" s="0" t="n">
         <v>-2116000000.0</v>
       </c>
-      <c r="AF23" s="0" t="n">
+      <c r="AG23" s="0" t="n">
         <v>-2802000000.0</v>
       </c>
-      <c r="AG23" s="0" t="n">
+      <c r="AH23" s="0" t="n">
         <v>-2239000000.0</v>
       </c>
-      <c r="AH23" s="0" t="n">
+      <c r="AI23" s="0" t="n">
         <v>-2145000000.0</v>
       </c>
-      <c r="AI23" s="0" t="n">
+      <c r="AJ23" s="0" t="n">
         <v>-4857000000.0</v>
       </c>
-      <c r="AJ23" s="0" t="n">
+      <c r="AK23" s="0" t="n">
         <v>-4741000000.0</v>
       </c>
-      <c r="AK23" s="0" t="n">
+      <c r="AL23" s="0" t="n">
         <v>-5123000000.0</v>
       </c>
-      <c r="AL23" s="0" t="n">
+      <c r="AM23" s="0" t="n">
         <v>-4955000000.0</v>
       </c>
-      <c r="AM23" s="0" t="n">
+      <c r="AN23" s="0" t="n">
         <v>-1656000000.0</v>
       </c>
-      <c r="AN23" s="0" t="n">
+      <c r="AO23" s="0" t="n">
         <v>-1626000000.0</v>
       </c>
     </row>
@@ -3294,120 +3374,123 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
+        <v>94000000.0</v>
+      </c>
+      <c r="C24" s="0" t="n">
         <v>108000000.0</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="D24" s="0" t="n">
         <v>62000000.0</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="E24" s="0" t="n">
         <v>9000000.0</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="F24" s="0" t="n">
         <v>-21000000.0</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="G24" s="0" t="n">
         <v>-4000000.0</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="H24" s="0" t="n">
         <v>-20000000.0</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="I24" s="0" t="n">
         <v>-8000000.0</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="J24" s="0" t="n">
         <v>-47000000.0</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="K24" s="0" t="n">
         <v>-31000000.0</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="L24" s="0" t="n">
         <v>-22000000.0</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="M24" s="0" t="n">
         <v>1000000.0</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="N24" s="0" t="n">
         <v>66000000.0</v>
       </c>
-      <c r="N24" s="0" t="n">
+      <c r="O24" s="0" t="n">
         <v>59000000.0</v>
       </c>
-      <c r="O24" s="0" t="n">
+      <c r="P24" s="0" t="n">
         <v>28000000.0</v>
       </c>
-      <c r="P24" s="0" t="n">
+      <c r="Q24" s="0" t="n">
         <v>13000000.0</v>
       </c>
-      <c r="Q24" s="0" t="n">
+      <c r="R24" s="0" t="n">
         <v>-25000000.0</v>
       </c>
-      <c r="R24" s="0" t="n">
+      <c r="S24" s="0" t="n">
         <v>-9000000.0</v>
       </c>
-      <c r="S24" s="0" t="n">
+      <c r="T24" s="0" t="n">
         <v>-1000000.0</v>
       </c>
-      <c r="T24" s="0" t="n">
+      <c r="U24" s="0" t="n">
         <v>-5000000.0</v>
       </c>
-      <c r="U24" s="0" t="n">
+      <c r="V24" s="0" t="n">
         <v>15000000.0</v>
       </c>
-      <c r="V24" s="0" t="n">
+      <c r="W24" s="0" t="n">
         <v>-48000000.0</v>
       </c>
-      <c r="W24" s="0" t="n">
+      <c r="X24" s="0" t="n">
         <v>-45000000.0</v>
       </c>
-      <c r="X24" s="0" t="n">
+      <c r="Y24" s="0" t="n">
         <v>-63000000.0</v>
       </c>
-      <c r="Y24" s="0" t="n">
+      <c r="Z24" s="0" t="n">
         <v>-80000000.0</v>
       </c>
-      <c r="Z24" s="0" t="n">
+      <c r="AA24" s="0" t="n">
         <v>-29000000.0</v>
       </c>
-      <c r="AA24" s="0" t="n">
+      <c r="AB24" s="0" t="n">
         <v>14000000.0</v>
       </c>
-      <c r="AB24" s="0" t="n">
+      <c r="AC24" s="0" t="n">
         <v>85000000.0</v>
       </c>
-      <c r="AC24" s="0" t="n">
+      <c r="AD24" s="0" t="n">
         <v>96000000.0</v>
       </c>
-      <c r="AD24" s="0" t="n">
+      <c r="AE24" s="0" t="n">
         <v>74000000.0</v>
       </c>
-      <c r="AE24" s="0" t="n">
+      <c r="AF24" s="0" t="n">
         <v>66000000.0</v>
       </c>
-      <c r="AF24" s="0" t="n">
+      <c r="AG24" s="0" t="n">
         <v>50000000.0</v>
       </c>
-      <c r="AG24" s="0" t="n">
+      <c r="AH24" s="0" t="n">
         <v>11000000.0</v>
       </c>
-      <c r="AH24" s="0" t="n">
+      <c r="AI24" s="0" t="n">
         <v>38000000.0</v>
       </c>
-      <c r="AI24" s="0" t="n">
+      <c r="AJ24" s="0" t="n">
         <v>-20000000.0</v>
       </c>
-      <c r="AJ24" s="0" t="n">
+      <c r="AK24" s="0" t="n">
         <v>-226000000.0</v>
       </c>
-      <c r="AK24" s="0" t="n">
+      <c r="AL24" s="0" t="n">
         <v>-152000000.0</v>
       </c>
-      <c r="AL24" s="0" t="n">
+      <c r="AM24" s="0" t="n">
         <v>-41000000.0</v>
       </c>
-      <c r="AM24" s="0" t="n">
+      <c r="AN24" s="0" t="n">
         <v>-56000000.0</v>
       </c>
-      <c r="AN24" s="0" t="n">
+      <c r="AO24" s="0" t="n">
         <v>314000000.0</v>
       </c>
     </row>
@@ -3418,120 +3501,123 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
+        <v>-170000000.0</v>
+      </c>
+      <c r="C25" s="0" t="n">
         <v>877000000.0</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="D25" s="0" t="n">
         <v>1972000000.0</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="E25" s="0" t="n">
         <v>1270000000.0</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="F25" s="0" t="n">
         <v>1275000000.0</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="G25" s="0" t="n">
         <v>487000000.0</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="H25" s="0" t="n">
         <v>-20000000.0</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="I25" s="0" t="n">
         <v>-1078000000.0</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="J25" s="0" t="n">
         <v>-1482000000.0</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="K25" s="0" t="n">
         <v>-1127000000.0</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="L25" s="0" t="n">
         <v>-679000000.0</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="M25" s="0" t="n">
         <v>1646000000.0</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="N25" s="0" t="n">
         <v>1354000000.0</v>
       </c>
-      <c r="N25" s="0" t="n">
+      <c r="O25" s="0" t="n">
         <v>650000000.0</v>
       </c>
-      <c r="O25" s="0" t="n">
+      <c r="P25" s="0" t="n">
         <v>467000000.0</v>
       </c>
-      <c r="P25" s="0" t="n">
+      <c r="Q25" s="0" t="n">
         <v>-324000000.0</v>
       </c>
-      <c r="Q25" s="0" t="n">
+      <c r="R25" s="0" t="n">
         <v>-839000000.0</v>
       </c>
-      <c r="R25" s="0" t="n">
+      <c r="S25" s="0" t="n">
         <v>-53000000.0</v>
       </c>
-      <c r="S25" s="0" t="n">
+      <c r="T25" s="0" t="n">
         <v>-732000000.0</v>
       </c>
-      <c r="T25" s="0" t="n">
+      <c r="U25" s="0" t="n">
         <v>-263000000.0</v>
       </c>
-      <c r="U25" s="0" t="n">
+      <c r="V25" s="0" t="n">
         <v>-293000000.0</v>
       </c>
-      <c r="V25" s="0" t="n">
+      <c r="W25" s="0" t="n">
         <v>-102000000.0</v>
       </c>
-      <c r="W25" s="0" t="n">
+      <c r="X25" s="0" t="n">
         <v>289000000.0</v>
       </c>
-      <c r="X25" s="0" t="n">
+      <c r="Y25" s="0" t="n">
         <v>-705000000.0</v>
       </c>
-      <c r="Y25" s="0" t="n">
+      <c r="Z25" s="0" t="n">
         <v>-1086000000.0</v>
       </c>
-      <c r="Z25" s="0" t="n">
+      <c r="AA25" s="0" t="n">
         <v>-3419000000.0</v>
       </c>
-      <c r="AA25" s="0" t="n">
+      <c r="AB25" s="0" t="n">
         <v>-3229000000.0</v>
       </c>
-      <c r="AB25" s="0" t="n">
+      <c r="AC25" s="0" t="n">
         <v>-1203000000.0</v>
       </c>
-      <c r="AC25" s="0" t="n">
+      <c r="AD25" s="0" t="n">
         <v>-177000000.0</v>
       </c>
-      <c r="AD25" s="0" t="n">
+      <c r="AE25" s="0" t="n">
         <v>1718000000.0</v>
       </c>
-      <c r="AE25" s="0" t="n">
+      <c r="AF25" s="0" t="n">
         <v>887000000.0</v>
       </c>
-      <c r="AF25" s="0" t="n">
+      <c r="AG25" s="0" t="n">
         <v>1283000000.0</v>
       </c>
-      <c r="AG25" s="0" t="n">
+      <c r="AH25" s="0" t="n">
         <v>1209000000.0</v>
       </c>
-      <c r="AH25" s="0" t="n">
+      <c r="AI25" s="0" t="n">
         <v>1667000000.0</v>
       </c>
-      <c r="AI25" s="0" t="n">
+      <c r="AJ25" s="0" t="n">
         <v>-2082000000.0</v>
       </c>
-      <c r="AJ25" s="0" t="n">
+      <c r="AK25" s="0" t="n">
         <v>-2737000000.0</v>
       </c>
-      <c r="AK25" s="0" t="n">
+      <c r="AL25" s="0" t="n">
         <v>-2713000000.0</v>
       </c>
-      <c r="AL25" s="0" t="n">
+      <c r="AM25" s="0" t="n">
         <v>-3157000000.0</v>
       </c>
-      <c r="AM25" s="0" t="n">
+      <c r="AN25" s="0" t="n">
         <v>777000000.0</v>
       </c>
-      <c r="AN25" s="0" t="n">
+      <c r="AO25" s="0" t="n">
         <v>934000000.0</v>
       </c>
     </row>
@@ -3542,7 +3628,7 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>888000000.0</v>
+        <v>1765000000.0</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>888000000.0</v>
@@ -3554,7 +3640,7 @@
         <v>888000000.0</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>401000000.0</v>
+        <v>888000000.0</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>401000000.0</v>
@@ -3566,7 +3652,7 @@
         <v>401000000.0</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>1528000000.0</v>
+        <v>401000000.0</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>1528000000.0</v>
@@ -3578,7 +3664,7 @@
         <v>1528000000.0</v>
       </c>
       <c r="N26" s="0" t="n">
-        <v>878000000.0</v>
+        <v>1528000000.0</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>878000000.0</v>
@@ -3587,25 +3673,25 @@
         <v>878000000.0</v>
       </c>
       <c r="Q26" s="0" t="n">
+        <v>878000000.0</v>
+      </c>
+      <c r="R26" s="0" t="n">
         <v>885000000.0</v>
       </c>
-      <c r="R26" s="0" t="n">
+      <c r="S26" s="0" t="n">
         <v>931000000.0</v>
-      </c>
-      <c r="S26" s="0" t="n">
-        <v>933000000.0</v>
       </c>
       <c r="T26" s="0" t="n">
         <v>933000000.0</v>
       </c>
       <c r="U26" s="0" t="n">
+        <v>933000000.0</v>
+      </c>
+      <c r="V26" s="0" t="n">
         <v>926000000.0</v>
       </c>
-      <c r="V26" s="0" t="n">
+      <c r="W26" s="0" t="n">
         <v>1033000000.0</v>
-      </c>
-      <c r="W26" s="0" t="n">
-        <v>1031000000.0</v>
       </c>
       <c r="X26" s="0" t="n">
         <v>1031000000.0</v>
@@ -3614,7 +3700,7 @@
         <v>1031000000.0</v>
       </c>
       <c r="Z26" s="0" t="n">
-        <v>4450000000.0</v>
+        <v>1031000000.0</v>
       </c>
       <c r="AA26" s="0" t="n">
         <v>4450000000.0</v>
@@ -3626,7 +3712,7 @@
         <v>4450000000.0</v>
       </c>
       <c r="AD26" s="0" t="n">
-        <v>2732000000.0</v>
+        <v>4450000000.0</v>
       </c>
       <c r="AE26" s="0" t="n">
         <v>2732000000.0</v>
@@ -3638,7 +3724,7 @@
         <v>2732000000.0</v>
       </c>
       <c r="AH26" s="0" t="n">
-        <v>1065000000.0</v>
+        <v>2732000000.0</v>
       </c>
       <c r="AI26" s="0" t="n">
         <v>1065000000.0</v>
@@ -3650,12 +3736,15 @@
         <v>1065000000.0</v>
       </c>
       <c r="AL26" s="0" t="n">
-        <v>4222000000.0</v>
+        <v>1065000000.0</v>
       </c>
       <c r="AM26" s="0" t="n">
         <v>4222000000.0</v>
       </c>
       <c r="AN26" s="0" t="n">
+        <v>4222000000.0</v>
+      </c>
+      <c r="AO26" s="0" t="n">
         <v>4222000000.0</v>
       </c>
     </row>
@@ -3666,120 +3755,123 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
+        <v>1595000000.0</v>
+      </c>
+      <c r="C27" s="0" t="n">
         <v>1765000000.0</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="D27" s="0" t="n">
         <v>2860000000.0</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="E27" s="0" t="n">
         <v>2158000000.0</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="F27" s="0" t="n">
         <v>2163000000.0</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="G27" s="0" t="n">
         <v>888000000.0</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="H27" s="0" t="n">
         <v>381000000.0</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="I27" s="0" t="n">
         <v>-677000000.0</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="J27" s="0" t="n">
         <v>-1081000000.0</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="K27" s="0" t="n">
         <v>401000000.0</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="L27" s="0" t="n">
         <v>849000000.0</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="M27" s="0" t="n">
         <v>3174000000.0</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="N27" s="0" t="n">
         <v>2882000000.0</v>
       </c>
-      <c r="N27" s="0" t="n">
+      <c r="O27" s="0" t="n">
         <v>1528000000.0</v>
       </c>
-      <c r="O27" s="0" t="n">
+      <c r="P27" s="0" t="n">
         <v>1345000000.0</v>
       </c>
-      <c r="P27" s="0" t="n">
+      <c r="Q27" s="0" t="n">
         <v>554000000.0</v>
       </c>
-      <c r="Q27" s="0" t="n">
+      <c r="R27" s="0" t="n">
         <v>46000000.0</v>
       </c>
-      <c r="R27" s="0" t="n">
+      <c r="S27" s="0" t="n">
         <v>878000000.0</v>
       </c>
-      <c r="S27" s="0" t="n">
+      <c r="T27" s="0" t="n">
         <v>201000000.0</v>
       </c>
-      <c r="T27" s="0" t="n">
+      <c r="U27" s="0" t="n">
         <v>670000000.0</v>
       </c>
-      <c r="U27" s="0" t="n">
+      <c r="V27" s="0" t="n">
         <v>633000000.0</v>
       </c>
-      <c r="V27" s="0" t="n">
+      <c r="W27" s="0" t="n">
         <v>931000000.0</v>
       </c>
-      <c r="W27" s="0" t="n">
+      <c r="X27" s="0" t="n">
         <v>1320000000.0</v>
       </c>
-      <c r="X27" s="0" t="n">
+      <c r="Y27" s="0" t="n">
         <v>326000000.0</v>
       </c>
-      <c r="Y27" s="0" t="n">
+      <c r="Z27" s="0" t="n">
         <v>-55000000.0</v>
       </c>
-      <c r="Z27" s="0" t="n">
+      <c r="AA27" s="0" t="n">
         <v>1031000000.0</v>
       </c>
-      <c r="AA27" s="0" t="n">
+      <c r="AB27" s="0" t="n">
         <v>1221000000.0</v>
       </c>
-      <c r="AB27" s="0" t="n">
+      <c r="AC27" s="0" t="n">
         <v>3247000000.0</v>
       </c>
-      <c r="AC27" s="0" t="n">
+      <c r="AD27" s="0" t="n">
         <v>4273000000.0</v>
       </c>
-      <c r="AD27" s="0" t="n">
+      <c r="AE27" s="0" t="n">
         <v>4450000000.0</v>
       </c>
-      <c r="AE27" s="0" t="n">
+      <c r="AF27" s="0" t="n">
         <v>3619000000.0</v>
       </c>
-      <c r="AF27" s="0" t="n">
+      <c r="AG27" s="0" t="n">
         <v>4015000000.0</v>
       </c>
-      <c r="AG27" s="0" t="n">
+      <c r="AH27" s="0" t="n">
         <v>3941000000.0</v>
       </c>
-      <c r="AH27" s="0" t="n">
+      <c r="AI27" s="0" t="n">
         <v>2732000000.0</v>
       </c>
-      <c r="AI27" s="0" t="n">
+      <c r="AJ27" s="0" t="n">
         <v>-1017000000.0</v>
       </c>
-      <c r="AJ27" s="0" t="n">
+      <c r="AK27" s="0" t="n">
         <v>-1672000000.0</v>
       </c>
-      <c r="AK27" s="0" t="n">
+      <c r="AL27" s="0" t="n">
         <v>-1648000000.0</v>
       </c>
-      <c r="AL27" s="0" t="n">
+      <c r="AM27" s="0" t="n">
         <v>1065000000.0</v>
       </c>
-      <c r="AM27" s="0" t="n">
+      <c r="AN27" s="0" t="n">
         <v>4999000000.0</v>
       </c>
-      <c r="AN27" s="0" t="n">
+      <c r="AO27" s="0" t="n">
         <v>5156000000.0</v>
       </c>
     </row>
@@ -3790,55 +3882,53 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>55000000.0</v>
+        <v>58000000.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>55000000.0</v>
       </c>
       <c r="D28" s="0" t="n">
+        <v>55000000.0</v>
+      </c>
+      <c r="E28" s="0" t="n">
         <v>53000000.0</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="F28" s="0" t="n">
         <v>52000000.0</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="G28" s="0" t="n">
         <v>48000000.0</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="H28" s="0" t="n">
         <v>42000000.0</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="I28" s="0" t="n">
         <v>39000000.0</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="J28" s="0" t="n">
         <v>42000000.0</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="K28" s="0" t="n">
         <v>39000000.0</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="L28" s="0" t="n">
         <v>49000000.0</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="M28" s="0" t="n">
         <v>58000000.0</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="N28" s="0" t="n">
         <v>51000000.0</v>
       </c>
-      <c r="N28" s="0" t="n">
+      <c r="O28" s="0" t="n">
         <v>55000000.0</v>
       </c>
-      <c r="O28" s="0" t="n">
+      <c r="P28" s="0" t="n">
         <v>77000000.0</v>
       </c>
-      <c r="P28" s="0" t="n">
+      <c r="Q28" s="0" t="n">
         <v>112000000.0</v>
       </c>
-      <c r="Q28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="R28" s="0" t="inlineStr">
         <is>
           <t/>
@@ -3950,6 +4040,11 @@
         </is>
       </c>
       <c r="AN28" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO28" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3962,120 +4057,123 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
+        <v>-1406000000.0</v>
+      </c>
+      <c r="C29" s="0" t="n">
         <v>-1405000000.0</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="D29" s="0" t="n">
         <v>-1404000000.0</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="E29" s="0" t="n">
         <v>-1403000000.0</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="F29" s="0" t="n">
         <v>-1441000000.0</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="G29" s="0" t="n">
         <v>-1462000000.0</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="H29" s="0" t="n">
         <v>-1489000000.0</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="I29" s="0" t="n">
         <v>-1527000000.0</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="J29" s="0" t="n">
         <v>-1531000000.0</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="K29" s="0" t="n">
         <v>-1554000000.0</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="L29" s="0" t="n">
         <v>-1531000000.0</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="M29" s="0" t="n">
         <v>-1498000000.0</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="N29" s="0" t="n">
         <v>-1467000000.0</v>
       </c>
-      <c r="N29" s="0" t="n">
+      <c r="O29" s="0" t="n">
         <v>-1415000000.0</v>
       </c>
-      <c r="O29" s="0" t="n">
+      <c r="P29" s="0" t="n">
         <v>-1406000000.0</v>
       </c>
-      <c r="P29" s="0" t="n">
+      <c r="Q29" s="0" t="n">
         <v>-1401000000.0</v>
       </c>
-      <c r="Q29" s="0" t="n">
+      <c r="R29" s="0" t="n">
         <v>-1402000000.0</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="S29" s="0" t="n">
         <v>-1395000000.0</v>
       </c>
-      <c r="S29" s="0" t="n">
+      <c r="T29" s="0" t="n">
         <v>-1396000000.0</v>
       </c>
-      <c r="T29" s="0" t="n">
+      <c r="U29" s="0" t="n">
         <v>-1406000000.0</v>
       </c>
-      <c r="U29" s="0" t="n">
+      <c r="V29" s="0" t="n">
         <v>-1412000000.0</v>
       </c>
-      <c r="V29" s="0" t="n">
+      <c r="W29" s="0" t="n">
         <v>-1410000000.0</v>
       </c>
-      <c r="W29" s="0" t="n">
+      <c r="X29" s="0" t="n">
         <v>-1411000000.0</v>
       </c>
-      <c r="X29" s="0" t="n">
+      <c r="Y29" s="0" t="n">
         <v>-1408000000.0</v>
       </c>
-      <c r="Y29" s="0" t="n">
+      <c r="Z29" s="0" t="n">
         <v>-1410000000.0</v>
       </c>
-      <c r="Z29" s="0" t="n">
+      <c r="AA29" s="0" t="n">
         <v>-1403000000.0</v>
       </c>
-      <c r="AA29" s="0" t="n">
+      <c r="AB29" s="0" t="n">
         <v>-1665000000.0</v>
       </c>
-      <c r="AB29" s="0" t="n">
+      <c r="AC29" s="0" t="n">
         <v>-1334000000.0</v>
       </c>
-      <c r="AC29" s="0" t="n">
+      <c r="AD29" s="0" t="n">
         <v>-1225000000.0</v>
       </c>
-      <c r="AD29" s="0" t="n">
+      <c r="AE29" s="0" t="n">
         <v>-1127000000.0</v>
       </c>
-      <c r="AE29" s="0" t="n">
+      <c r="AF29" s="0" t="n">
         <v>-2329000000.0</v>
       </c>
-      <c r="AF29" s="0" t="n">
+      <c r="AG29" s="0" t="n">
         <v>-2532000000.0</v>
       </c>
-      <c r="AG29" s="0" t="n">
+      <c r="AH29" s="0" t="n">
         <v>-2501000000.0</v>
       </c>
-      <c r="AH29" s="0" t="n">
+      <c r="AI29" s="0" t="n">
         <v>-2415000000.0</v>
       </c>
-      <c r="AI29" s="0" t="n">
+      <c r="AJ29" s="0" t="n">
         <v>-3325000000.0</v>
       </c>
-      <c r="AJ29" s="0" t="n">
+      <c r="AK29" s="0" t="n">
         <v>-3209000000.0</v>
       </c>
-      <c r="AK29" s="0" t="n">
+      <c r="AL29" s="0" t="n">
         <v>-3036000000.0</v>
       </c>
-      <c r="AL29" s="0" t="n">
+      <c r="AM29" s="0" t="n">
         <v>-2893000000.0</v>
       </c>
-      <c r="AM29" s="0" t="n">
+      <c r="AN29" s="0" t="n">
         <v>-171000000.0</v>
       </c>
-      <c r="AN29" s="0" t="n">
+      <c r="AO29" s="0" t="n">
         <v>-57000000.0</v>
       </c>
     </row>
@@ -4086,120 +4184,123 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
+        <v>-608000000.0</v>
+      </c>
+      <c r="C30" s="0" t="n">
         <v>327000000.0</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="D30" s="0" t="n">
         <v>762000000.0</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="E30" s="0" t="n">
         <v>1346000000.0</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="F30" s="0" t="n">
         <v>433000000.0</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="G30" s="0" t="n">
         <v>20000000.0</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="H30" s="0" t="n">
         <v>101000000.0</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="I30" s="0" t="n">
         <v>-345000000.0</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="J30" s="0" t="n">
         <v>168000000.0</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="K30" s="0" t="n">
         <v>93000000.0</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="L30" s="0" t="n">
         <v>-290000000.0</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="M30" s="0" t="n">
         <v>-231000000.0</v>
       </c>
-      <c r="M30" s="0" t="n">
+      <c r="N30" s="0" t="n">
         <v>-349000000.0</v>
       </c>
-      <c r="N30" s="0" t="n">
+      <c r="O30" s="0" t="n">
         <v>-593000000.0</v>
       </c>
-      <c r="O30" s="0" t="n">
+      <c r="P30" s="0" t="n">
         <v>2000000.0</v>
       </c>
-      <c r="P30" s="0" t="n">
+      <c r="Q30" s="0" t="n">
         <v>-216000000.0</v>
       </c>
-      <c r="Q30" s="0" t="n">
+      <c r="R30" s="0" t="n">
         <v>-269000000.0</v>
       </c>
-      <c r="R30" s="0" t="n">
+      <c r="S30" s="0" t="n">
         <v>152000000.0</v>
       </c>
-      <c r="S30" s="0" t="n">
+      <c r="T30" s="0" t="n">
         <v>15000000.0</v>
       </c>
-      <c r="T30" s="0" t="n">
+      <c r="U30" s="0" t="n">
         <v>283000000.0</v>
       </c>
-      <c r="U30" s="0" t="n">
+      <c r="V30" s="0" t="n">
         <v>349000000.0</v>
       </c>
-      <c r="V30" s="0" t="n">
+      <c r="W30" s="0" t="n">
         <v>302000000.0</v>
       </c>
-      <c r="W30" s="0" t="n">
+      <c r="X30" s="0" t="n">
         <v>1067000000.0</v>
       </c>
-      <c r="X30" s="0" t="n">
+      <c r="Y30" s="0" t="n">
         <v>606000000.0</v>
       </c>
-      <c r="Y30" s="0" t="n">
+      <c r="Z30" s="0" t="n">
         <v>1069000000.0</v>
       </c>
-      <c r="Z30" s="0" t="n">
+      <c r="AA30" s="0" t="n">
         <v>691000000.0</v>
       </c>
-      <c r="AA30" s="0" t="n">
+      <c r="AB30" s="0" t="n">
         <v>131000000.0</v>
       </c>
-      <c r="AB30" s="0" t="n">
+      <c r="AC30" s="0" t="n">
         <v>184000000.0</v>
       </c>
-      <c r="AC30" s="0" t="n">
+      <c r="AD30" s="0" t="n">
         <v>-136000000.0</v>
       </c>
-      <c r="AD30" s="0" t="n">
+      <c r="AE30" s="0" t="n">
         <v>-105000000.0</v>
       </c>
-      <c r="AE30" s="0" t="n">
+      <c r="AF30" s="0" t="n">
         <v>-493000000.0</v>
       </c>
-      <c r="AF30" s="0" t="n">
+      <c r="AG30" s="0" t="n">
         <v>372000000.0</v>
       </c>
-      <c r="AG30" s="0" t="n">
+      <c r="AH30" s="0" t="n">
         <v>-365000000.0</v>
       </c>
-      <c r="AH30" s="0" t="n">
+      <c r="AI30" s="0" t="n">
         <v>53000000.0</v>
       </c>
-      <c r="AI30" s="0" t="n">
+      <c r="AJ30" s="0" t="n">
         <v>594000000.0</v>
       </c>
-      <c r="AJ30" s="0" t="n">
+      <c r="AK30" s="0" t="n">
         <v>-155000000.0</v>
       </c>
-      <c r="AK30" s="0" t="n">
+      <c r="AL30" s="0" t="n">
         <v>404000000.0</v>
       </c>
-      <c r="AL30" s="0" t="n">
+      <c r="AM30" s="0" t="n">
         <v>-134000000.0</v>
       </c>
-      <c r="AM30" s="0" t="n">
+      <c r="AN30" s="0" t="n">
         <v>-1188000000.0</v>
       </c>
-      <c r="AN30" s="0" t="n">
+      <c r="AO30" s="0" t="n">
         <v>-932000000.0</v>
       </c>
     </row>
@@ -4210,94 +4311,92 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
+        <v>-152000000.0</v>
+      </c>
+      <c r="C31" s="0" t="n">
         <v>-451000000.0</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="D31" s="0" t="n">
         <v>252000000.0</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="E31" s="0" t="n">
         <v>-67000000.0</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="F31" s="0" t="n">
         <v>760000000.0</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="G31" s="0" t="n">
         <v>1229000000.0</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="H31" s="0" t="n">
         <v>897000000.0</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="I31" s="0" t="n">
         <v>881000000.0</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="J31" s="0" t="n">
         <v>621000000.0</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="K31" s="0" t="n">
         <v>436000000.0</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="L31" s="0" t="n">
         <v>-227000000.0</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="M31" s="0" t="n">
         <v>-248000000.0</v>
       </c>
-      <c r="M31" s="0" t="n">
+      <c r="N31" s="0" t="n">
         <v>-435000000.0</v>
       </c>
-      <c r="N31" s="0" t="n">
+      <c r="O31" s="0" t="n">
         <v>-868000000.0</v>
       </c>
-      <c r="O31" s="0" t="n">
+      <c r="P31" s="0" t="n">
         <v>-423000000.0</v>
       </c>
-      <c r="P31" s="0" t="n">
+      <c r="Q31" s="0" t="n">
         <v>-287000000.0</v>
       </c>
-      <c r="Q31" s="0" t="n">
+      <c r="R31" s="0" t="n">
         <v>707000000.0</v>
       </c>
-      <c r="R31" s="0" t="n">
+      <c r="S31" s="0" t="n">
         <v>-140000000.0</v>
       </c>
-      <c r="S31" s="0" t="n">
+      <c r="T31" s="0" t="n">
         <v>575000000.0</v>
       </c>
-      <c r="T31" s="0" t="n">
+      <c r="U31" s="0" t="n">
         <v>912000000.0</v>
       </c>
-      <c r="U31" s="0" t="n">
+      <c r="V31" s="0" t="n">
         <v>-480000000.0</v>
       </c>
-      <c r="V31" s="0" t="n">
+      <c r="W31" s="0" t="n">
         <v>369000000.0</v>
       </c>
-      <c r="W31" s="0" t="n">
+      <c r="X31" s="0" t="n">
         <v>-415000000.0</v>
       </c>
-      <c r="X31" s="0" t="n">
+      <c r="Y31" s="0" t="n">
         <v>-1155000000.0</v>
       </c>
-      <c r="Y31" s="0" t="n">
+      <c r="Z31" s="0" t="n">
         <v>-512000000.0</v>
       </c>
-      <c r="Z31" s="0" t="n">
+      <c r="AA31" s="0" t="n">
         <v>-2038000000.0</v>
       </c>
-      <c r="AA31" s="0" t="n">
+      <c r="AB31" s="0" t="n">
         <v>-1805000000.0</v>
       </c>
-      <c r="AB31" s="0" t="n">
+      <c r="AC31" s="0" t="n">
         <v>-1501000000.0</v>
       </c>
-      <c r="AC31" s="0" t="n">
+      <c r="AD31" s="0" t="n">
         <v>-1672000000.0</v>
       </c>
-      <c r="AD31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AE31" s="0" t="inlineStr">
         <is>
           <t/>
@@ -4344,6 +4443,11 @@
         </is>
       </c>
       <c r="AN31" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO31" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4355,104 +4459,104 @@
           <t>Issuance/Purchase of Shares</t>
         </is>
       </c>
-      <c r="B32" s="0" t="n">
-        <v>-4000000.0</v>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="C32" s="0" t="n">
         <v>-4000000.0</v>
       </c>
       <c r="D32" s="0" t="n">
+        <v>-4000000.0</v>
+      </c>
+      <c r="E32" s="0" t="n">
         <v>-3244000000.0</v>
       </c>
-      <c r="E32" s="0" t="n">
-        <v>-2169000000.0</v>
-      </c>
       <c r="F32" s="0" t="n">
+        <v>-2685000000.0</v>
+      </c>
+      <c r="G32" s="0" t="n">
         <v>-3752000000.0</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="H32" s="0" t="n">
         <v>-4805000000.0</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="I32" s="0" t="n">
         <v>-1896000000.0</v>
       </c>
-      <c r="I32" s="0" t="n">
+      <c r="J32" s="0" t="n">
         <v>-2806000000.0</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="K32" s="0" t="n">
         <v>-1854000000.0</v>
       </c>
-      <c r="K32" s="0" t="n">
+      <c r="L32" s="0" t="n">
         <v>-801000000.0</v>
       </c>
-      <c r="L32" s="0" t="n">
+      <c r="M32" s="0" t="n">
         <v>-766000000.0</v>
       </c>
-      <c r="M32" s="0" t="n">
+      <c r="N32" s="0" t="n">
         <v>-825000000.0</v>
       </c>
-      <c r="N32" s="0" t="n">
+      <c r="O32" s="0" t="n">
         <v>-866000000.0</v>
       </c>
-      <c r="O32" s="0" t="n">
+      <c r="P32" s="0" t="n">
         <v>-1303000000.0</v>
       </c>
-      <c r="P32" s="0" t="n">
+      <c r="Q32" s="0" t="n">
         <v>-1826000000.0</v>
       </c>
-      <c r="Q32" s="0" t="n">
+      <c r="R32" s="0" t="n">
         <v>-2112000000.0</v>
       </c>
-      <c r="R32" s="0" t="n">
+      <c r="S32" s="0" t="n">
         <v>-2938000000.0</v>
       </c>
-      <c r="S32" s="0" t="n">
+      <c r="T32" s="0" t="n">
         <v>-3721000000.0</v>
       </c>
-      <c r="T32" s="0" t="n">
+      <c r="U32" s="0" t="n">
         <v>-4201000000.0</v>
       </c>
-      <c r="U32" s="0" t="n">
+      <c r="V32" s="0" t="n">
         <v>-4283000000.0</v>
       </c>
-      <c r="V32" s="0" t="n">
+      <c r="W32" s="0" t="n">
         <v>-4656000000.0</v>
       </c>
-      <c r="W32" s="0" t="n">
+      <c r="X32" s="0" t="n">
         <v>-4877000000.0</v>
       </c>
-      <c r="X32" s="0" t="n">
+      <c r="Y32" s="0" t="n">
         <v>-4858000000.0</v>
       </c>
-      <c r="Y32" s="0" t="n">
+      <c r="Z32" s="0" t="n">
         <v>-5946000000.0</v>
       </c>
-      <c r="Z32" s="0" t="n">
+      <c r="AA32" s="0" t="n">
         <v>-5788000000.0</v>
       </c>
-      <c r="AA32" s="0" t="n">
+      <c r="AB32" s="0" t="n">
         <v>-5045000000.0</v>
       </c>
-      <c r="AB32" s="0" t="n">
+      <c r="AC32" s="0" t="n">
         <v>-4746000000.0</v>
       </c>
-      <c r="AC32" s="0" t="n">
+      <c r="AD32" s="0" t="n">
         <v>-3150000000.0</v>
       </c>
-      <c r="AD32" s="0" t="n">
+      <c r="AE32" s="0" t="n">
         <v>-1949000000.0</v>
       </c>
-      <c r="AE32" s="0" t="n">
+      <c r="AF32" s="0" t="n">
         <v>-1251000000.0</v>
       </c>
-      <c r="AF32" s="0" t="n">
+      <c r="AG32" s="0" t="n">
         <v>-233000000.0</v>
       </c>
-      <c r="AG32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AH32" s="0" t="inlineStr">
         <is>
           <t/>
@@ -4478,10 +4582,15 @@
           <t/>
         </is>
       </c>
-      <c r="AM32" s="0" t="n">
+      <c r="AM32" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN32" s="0" t="n">
         <v>37000000.0</v>
       </c>
-      <c r="AN32" s="0" t="n">
+      <c r="AO32" s="0" t="n">
         <v>37000000.0</v>
       </c>
     </row>
@@ -4491,104 +4600,104 @@
           <t>Capital Stock Change</t>
         </is>
       </c>
-      <c r="B33" s="0" t="n">
-        <v>-4000000.0</v>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="C33" s="0" t="n">
         <v>-4000000.0</v>
       </c>
       <c r="D33" s="0" t="n">
+        <v>-4000000.0</v>
+      </c>
+      <c r="E33" s="0" t="n">
         <v>-3244000000.0</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="F33" s="0" t="n">
         <v>-2169000000.0</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="G33" s="0" t="n">
         <v>-3752000000.0</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="H33" s="0" t="n">
         <v>-4805000000.0</v>
       </c>
-      <c r="H33" s="0" t="n">
+      <c r="I33" s="0" t="n">
         <v>-1896000000.0</v>
       </c>
-      <c r="I33" s="0" t="n">
+      <c r="J33" s="0" t="n">
         <v>-2806000000.0</v>
       </c>
-      <c r="J33" s="0" t="n">
+      <c r="K33" s="0" t="n">
         <v>-1854000000.0</v>
       </c>
-      <c r="K33" s="0" t="n">
+      <c r="L33" s="0" t="n">
         <v>-801000000.0</v>
       </c>
-      <c r="L33" s="0" t="n">
+      <c r="M33" s="0" t="n">
         <v>-766000000.0</v>
       </c>
-      <c r="M33" s="0" t="n">
+      <c r="N33" s="0" t="n">
         <v>-825000000.0</v>
       </c>
-      <c r="N33" s="0" t="n">
+      <c r="O33" s="0" t="n">
         <v>-866000000.0</v>
       </c>
-      <c r="O33" s="0" t="n">
+      <c r="P33" s="0" t="n">
         <v>-1303000000.0</v>
       </c>
-      <c r="P33" s="0" t="n">
+      <c r="Q33" s="0" t="n">
         <v>-1826000000.0</v>
       </c>
-      <c r="Q33" s="0" t="n">
+      <c r="R33" s="0" t="n">
         <v>-2112000000.0</v>
       </c>
-      <c r="R33" s="0" t="n">
+      <c r="S33" s="0" t="n">
         <v>-2938000000.0</v>
       </c>
-      <c r="S33" s="0" t="n">
+      <c r="T33" s="0" t="n">
         <v>-3721000000.0</v>
       </c>
-      <c r="T33" s="0" t="n">
+      <c r="U33" s="0" t="n">
         <v>-4201000000.0</v>
       </c>
-      <c r="U33" s="0" t="n">
+      <c r="V33" s="0" t="n">
         <v>-4283000000.0</v>
       </c>
-      <c r="V33" s="0" t="n">
+      <c r="W33" s="0" t="n">
         <v>-4656000000.0</v>
       </c>
-      <c r="W33" s="0" t="n">
+      <c r="X33" s="0" t="n">
         <v>-4877000000.0</v>
       </c>
-      <c r="X33" s="0" t="n">
+      <c r="Y33" s="0" t="n">
         <v>-4858000000.0</v>
       </c>
-      <c r="Y33" s="0" t="n">
+      <c r="Z33" s="0" t="n">
         <v>-5946000000.0</v>
       </c>
-      <c r="Z33" s="0" t="n">
+      <c r="AA33" s="0" t="n">
         <v>-5788000000.0</v>
       </c>
-      <c r="AA33" s="0" t="n">
+      <c r="AB33" s="0" t="n">
         <v>-5045000000.0</v>
       </c>
-      <c r="AB33" s="0" t="n">
+      <c r="AC33" s="0" t="n">
         <v>-4746000000.0</v>
       </c>
-      <c r="AC33" s="0" t="n">
+      <c r="AD33" s="0" t="n">
         <v>-3150000000.0</v>
       </c>
-      <c r="AD33" s="0" t="n">
+      <c r="AE33" s="0" t="n">
         <v>-1949000000.0</v>
       </c>
-      <c r="AE33" s="0" t="n">
+      <c r="AF33" s="0" t="n">
         <v>-1251000000.0</v>
       </c>
-      <c r="AF33" s="0" t="n">
+      <c r="AG33" s="0" t="n">
         <v>-233000000.0</v>
       </c>
-      <c r="AG33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AH33" s="0" t="inlineStr">
         <is>
           <t/>
@@ -4614,10 +4723,15 @@
           <t/>
         </is>
       </c>
-      <c r="AM33" s="0" t="n">
+      <c r="AM33" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN33" s="0" t="n">
         <v>37000000.0</v>
       </c>
-      <c r="AN33" s="0" t="n">
+      <c r="AO33" s="0" t="n">
         <v>37000000.0</v>
       </c>
     </row>
